--- a/teaching/traditional_assets/database/data/turkey/turkey_retail_general.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_retail_general.xlsx
@@ -647,10 +647,10 @@
         <v>0.4399750996015937</v>
       </c>
       <c r="X2">
-        <v>0.1403002864304136</v>
+        <v>0.1400449848592475</v>
       </c>
       <c r="Y2">
-        <v>0.2996748131711801</v>
+        <v>0.2999301147423462</v>
       </c>
       <c r="Z2">
         <v>2.920569813203259</v>
@@ -659,10 +659,10 @@
         <v>0.07546674802493786</v>
       </c>
       <c r="AB2">
-        <v>0.1082553310968554</v>
+        <v>0.1059747226772175</v>
       </c>
       <c r="AC2">
-        <v>-0.03278858307191755</v>
+        <v>-0.03050797465227965</v>
       </c>
       <c r="AD2">
         <v>418.3</v>
@@ -775,10 +775,10 @@
         <v>0.9425000000000001</v>
       </c>
       <c r="X3">
-        <v>0.1136185981852482</v>
+        <v>0.1120249936957484</v>
       </c>
       <c r="Y3">
-        <v>0.8288814018147519</v>
+        <v>0.8304750063042518</v>
       </c>
       <c r="Z3">
         <v>6.766901408450704</v>
@@ -787,10 +787,10 @@
         <v>0.1661971830985915</v>
       </c>
       <c r="AB3">
-        <v>0.1031297257445365</v>
+        <v>0.1007640957912228</v>
       </c>
       <c r="AC3">
-        <v>0.063067457354055</v>
+        <v>0.06543308730736877</v>
       </c>
       <c r="AD3">
         <v>287.7</v>
@@ -906,10 +906,10 @@
         <v>-0.06254980079681274</v>
       </c>
       <c r="X4">
-        <v>0.1669819746755789</v>
+        <v>0.1680649760227466</v>
       </c>
       <c r="Y4">
-        <v>-0.2295317754723916</v>
+        <v>-0.2306147768195594</v>
       </c>
       <c r="Z4">
         <v>0.4245498583310484</v>
@@ -918,10 +918,10 @@
         <v>-0.01526368704871584</v>
       </c>
       <c r="AB4">
-        <v>0.1133809364491743</v>
+        <v>0.1111853495632122</v>
       </c>
       <c r="AC4">
-        <v>-0.1286446234978901</v>
+        <v>-0.1264490366119281</v>
       </c>
       <c r="AD4">
         <v>130.6</v>
@@ -1221,37 +1221,37 @@
         <v>0.222076418371285</v>
       </c>
       <c r="F2">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="G2">
         <v>1007.8</v>
       </c>
       <c r="H2">
-        <v>1262.81911671587</v>
+        <v>1211.72508612693</v>
       </c>
       <c r="I2">
         <v>1224.1</v>
       </c>
       <c r="J2">
-        <v>1359.83411671587</v>
+        <v>1360.56008612693</v>
       </c>
       <c r="K2">
         <v>287.7</v>
       </c>
       <c r="L2">
-        <v>168.415</v>
+        <v>220.235</v>
       </c>
       <c r="M2">
-        <v>0.103129725744537</v>
+        <v>0.100764095791223</v>
       </c>
       <c r="N2">
-        <v>0.09441276310824</v>
+        <v>0.0915905219693406</v>
       </c>
       <c r="O2">
-        <v>0.066387683180236</v>
+        <v>0.061317683180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.113618598185248</v>
+        <v>0.112024993695748</v>
       </c>
       <c r="T2">
-        <v>0.105128762193379</v>
+        <v>0.106739472252218</v>
       </c>
       <c r="U2">
         <v>1.02216573135418</v>
       </c>
       <c r="V2">
-        <v>0.9334502971044371</v>
+        <v>0.969572115160675</v>
       </c>
       <c r="W2">
-        <v>4.815465151998832</v>
+        <v>4.741516051538673</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1285,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>1007.8</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08511241433363595</v>
+        <v>0.07861241433363596</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1486,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09580414155676339</v>
+        <v>0.09331699768267253</v>
       </c>
       <c r="C2">
-        <v>1407.584792484034</v>
+        <v>1404.001768048258</v>
       </c>
       <c r="D2">
-        <v>1336.184792484034</v>
+        <v>1332.601768048258</v>
       </c>
       <c r="E2">
         <v>-287.7</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09580414155676339</v>
+        <v>0.09331699768267253</v>
       </c>
       <c r="T2">
         <v>0.8360116928977358</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1568,13 +1568,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.09564719244533854</v>
+        <v>0.09316552028777066</v>
       </c>
       <c r="C3">
-        <v>1397.256221910759</v>
+        <v>1393.453705292228</v>
       </c>
       <c r="D3">
-        <v>1338.811221910759</v>
+        <v>1335.008705292228</v>
       </c>
       <c r="E3">
         <v>-274.745</v>
@@ -1601,37 +1601,37 @@
         <v>23.6</v>
       </c>
       <c r="M3">
-        <v>0.2940785</v>
+        <v>0.209871</v>
       </c>
       <c r="N3">
-        <v>23.3059215</v>
+        <v>23.390129</v>
       </c>
       <c r="O3">
-        <v>5.12730273</v>
+        <v>5.14582838</v>
       </c>
       <c r="P3">
-        <v>18.17861877</v>
+        <v>18.24430062</v>
       </c>
       <c r="Q3">
-        <v>37.57861877</v>
+        <v>37.64430062</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.09643447721751366</v>
+        <v>0.09397894978562692</v>
       </c>
       <c r="T3">
         <v>0.8425984516902634</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>80.25068136568977</v>
+        <v>112.450028827232</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1650,13 +1650,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.09549024333391364</v>
+        <v>0.09301404289286877</v>
       </c>
       <c r="C4">
-        <v>1386.937996788759</v>
+        <v>1382.914353060044</v>
       </c>
       <c r="D4">
-        <v>1341.447996788759</v>
+        <v>1337.424353060044</v>
       </c>
       <c r="E4">
         <v>-261.79</v>
@@ -1683,37 +1683,37 @@
         <v>23.6</v>
       </c>
       <c r="M4">
-        <v>0.588157</v>
+        <v>0.419742</v>
       </c>
       <c r="N4">
-        <v>23.011843</v>
+        <v>23.180258</v>
       </c>
       <c r="O4">
-        <v>5.06260546</v>
+        <v>5.09965676</v>
       </c>
       <c r="P4">
-        <v>17.94923754</v>
+        <v>18.08060124</v>
       </c>
       <c r="Q4">
-        <v>37.34923754</v>
+        <v>37.48060124</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.09707767687134045</v>
+        <v>0.09465441111517221</v>
       </c>
       <c r="T4">
         <v>0.8493196341316182</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>40.12534068284489</v>
+        <v>56.22501441361599</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.09533329422248878</v>
+        <v>0.0928625654979669</v>
       </c>
       <c r="C5">
-        <v>1376.630178364436</v>
+        <v>1372.38375872151</v>
       </c>
       <c r="D5">
-        <v>1344.095178364435</v>
+        <v>1339.84875872151</v>
       </c>
       <c r="E5">
         <v>-248.835</v>
@@ -1765,37 +1765,37 @@
         <v>23.6</v>
       </c>
       <c r="M5">
-        <v>0.8822355000000001</v>
+        <v>0.629613</v>
       </c>
       <c r="N5">
-        <v>22.7177645</v>
+        <v>22.970387</v>
       </c>
       <c r="O5">
-        <v>4.99790819</v>
+        <v>5.05348514</v>
       </c>
       <c r="P5">
-        <v>17.71985631</v>
+        <v>17.91690186</v>
       </c>
       <c r="Q5">
-        <v>37.11985631</v>
+        <v>37.31690186</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.09773413837369976</v>
+        <v>0.09534379948244009</v>
       </c>
       <c r="T5">
         <v>0.8561793976542379</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>26.75022712189659</v>
+        <v>37.48334294241066</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1814,13 +1814,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.09517634511106386</v>
+        <v>0.092711088103065</v>
       </c>
       <c r="C6">
-        <v>1366.332828368598</v>
+        <v>1361.861969990531</v>
       </c>
       <c r="D6">
-        <v>1346.752828368598</v>
+        <v>1342.281969990531</v>
       </c>
       <c r="E6">
         <v>-235.88</v>
@@ -1847,37 +1847,37 @@
         <v>23.6</v>
       </c>
       <c r="M6">
-        <v>1.176314</v>
+        <v>0.839484</v>
       </c>
       <c r="N6">
-        <v>22.423686</v>
+        <v>22.760516</v>
       </c>
       <c r="O6">
-        <v>4.93321092</v>
+        <v>5.00731352</v>
       </c>
       <c r="P6">
-        <v>17.49047508</v>
+        <v>17.75320248</v>
       </c>
       <c r="Q6">
-        <v>36.89047508</v>
+        <v>37.15320248</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.09840427615735819</v>
+        <v>0.09604755010735938</v>
       </c>
       <c r="T6">
         <v>0.8631820729169122</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>20.06267034142244</v>
+        <v>28.11250720680799</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1896,13 +1896,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.09501939599963902</v>
+        <v>0.09255961070816314</v>
       </c>
       <c r="C7">
-        <v>1356.046009021254</v>
+        <v>1351.349034928242</v>
       </c>
       <c r="D7">
-        <v>1349.421009021254</v>
+        <v>1344.724034928242</v>
       </c>
       <c r="E7">
         <v>-222.925</v>
@@ -1929,37 +1929,37 @@
         <v>23.6</v>
       </c>
       <c r="M7">
-        <v>1.4703925</v>
+        <v>1.049355</v>
       </c>
       <c r="N7">
-        <v>22.1296075</v>
+        <v>22.550645</v>
       </c>
       <c r="O7">
-        <v>4.868513650000001</v>
+        <v>4.9611419</v>
       </c>
       <c r="P7">
-        <v>17.26109385</v>
+        <v>17.5895031</v>
       </c>
       <c r="Q7">
-        <v>36.66109385</v>
+        <v>36.9895031</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.09908852210488317</v>
+        <v>0.09676611653490858</v>
       </c>
       <c r="T7">
         <v>0.8703321729219587</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>16.05013627313795</v>
+        <v>22.49000576544639</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1978,13 +1978,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.09493732688821412</v>
+        <v>0.09240813331326124</v>
       </c>
       <c r="C8">
-        <v>1344.490421757357</v>
+        <v>1340.845001946177</v>
       </c>
       <c r="D8">
-        <v>1350.820421757357</v>
+        <v>1347.175001946177</v>
       </c>
       <c r="E8">
         <v>-209.97</v>
@@ -2011,45 +2011,45 @@
         <v>23.6</v>
       </c>
       <c r="M8">
-        <v>1.888839</v>
+        <v>1.259226</v>
       </c>
       <c r="N8">
-        <v>21.711161</v>
+        <v>22.340774</v>
       </c>
       <c r="O8">
-        <v>4.77645542</v>
+        <v>4.91497028</v>
       </c>
       <c r="P8">
-        <v>16.93470558</v>
+        <v>17.42580372</v>
       </c>
       <c r="Q8">
-        <v>36.33470558</v>
+        <v>36.82580372</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.09978732647682353</v>
+        <v>0.0974999716098524</v>
       </c>
       <c r="T8">
         <v>0.8776344027143465</v>
       </c>
       <c r="U8">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y8">
-        <v>12.49444764747022</v>
+        <v>18.74167147120533</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2060,13 +2060,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.09479285777678922</v>
+        <v>0.09225665591835938</v>
       </c>
       <c r="C9">
-        <v>1334.005921388821</v>
+        <v>1330.349919809458</v>
       </c>
       <c r="D9">
-        <v>1353.290921388821</v>
+        <v>1349.634919809458</v>
       </c>
       <c r="E9">
         <v>-197.015</v>
@@ -2093,45 +2093,45 @@
         <v>23.6</v>
       </c>
       <c r="M9">
-        <v>2.2036455</v>
+        <v>1.469097</v>
       </c>
       <c r="N9">
-        <v>21.3963545</v>
+        <v>22.130903</v>
       </c>
       <c r="O9">
-        <v>4.70719799</v>
+        <v>4.86879866</v>
       </c>
       <c r="P9">
-        <v>16.68915651</v>
+        <v>17.26210434</v>
       </c>
       <c r="Q9">
-        <v>36.08915651</v>
+        <v>36.66210434</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.1005011588997734</v>
+        <v>0.09824960851436493</v>
       </c>
       <c r="T9">
         <v>0.8850936697065707</v>
       </c>
       <c r="U9">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y9">
-        <v>10.70952655497447</v>
+        <v>16.06428983246171</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2142,13 +2142,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.09478566866536438</v>
+        <v>0.09210517852345751</v>
       </c>
       <c r="C10">
-        <v>1321.174095116264</v>
+        <v>1319.863837640043</v>
       </c>
       <c r="D10">
-        <v>1353.414095116264</v>
+        <v>1352.103837640043</v>
       </c>
       <c r="E10">
         <v>-184.06</v>
@@ -2175,45 +2175,45 @@
         <v>23.6</v>
       </c>
       <c r="M10">
-        <v>2.74646</v>
+        <v>1.678968</v>
       </c>
       <c r="N10">
-        <v>20.85354</v>
+        <v>21.921032</v>
       </c>
       <c r="O10">
-        <v>4.587778800000001</v>
+        <v>4.82262704</v>
       </c>
       <c r="P10">
-        <v>16.2657612</v>
+        <v>17.09840496</v>
       </c>
       <c r="Q10">
-        <v>35.6657612</v>
+        <v>36.49840496</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.1012305094188743</v>
+        <v>0.09901554187332337</v>
       </c>
       <c r="T10">
         <v>0.8927150946768866</v>
       </c>
       <c r="U10">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y10">
-        <v>8.592879561326217</v>
+        <v>14.056253603404</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2224,13 +2224,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.09473557955393948</v>
+        <v>0.09206602112855561</v>
       </c>
       <c r="C11">
-        <v>1309.077913279092</v>
+        <v>1307.548530876433</v>
       </c>
       <c r="D11">
-        <v>1354.272913279092</v>
+        <v>1352.743530876433</v>
       </c>
       <c r="E11">
         <v>-171.105</v>
@@ -2257,45 +2257,45 @@
         <v>23.6</v>
       </c>
       <c r="M11">
-        <v>3.218022</v>
+        <v>2.075391</v>
       </c>
       <c r="N11">
-        <v>20.381978</v>
+        <v>21.524609</v>
       </c>
       <c r="O11">
-        <v>4.48403516</v>
+        <v>4.735413980000001</v>
       </c>
       <c r="P11">
-        <v>15.89794284</v>
+        <v>16.78919502</v>
       </c>
       <c r="Q11">
-        <v>35.29794284</v>
+        <v>36.18919502</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.1019758896197137</v>
+        <v>0.09979830893247869</v>
       </c>
       <c r="T11">
         <v>0.900504023492704</v>
       </c>
       <c r="U11">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y11">
-        <v>7.33369753221078</v>
+        <v>11.37135122972009</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2306,13 +2306,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.0946168504425146</v>
+        <v>0.09209862373365375</v>
       </c>
       <c r="C12">
-        <v>1298.162979822194</v>
+        <v>1294.060877540575</v>
       </c>
       <c r="D12">
-        <v>1356.312979822194</v>
+        <v>1352.210877540575</v>
       </c>
       <c r="E12">
         <v>-158.15</v>
@@ -2339,45 +2339,45 @@
         <v>23.6</v>
       </c>
       <c r="M12">
-        <v>3.57558</v>
+        <v>2.591</v>
       </c>
       <c r="N12">
-        <v>20.02442</v>
+        <v>21.009</v>
       </c>
       <c r="O12">
-        <v>4.4053724</v>
+        <v>4.62198</v>
       </c>
       <c r="P12">
-        <v>15.6190476</v>
+        <v>16.38702</v>
       </c>
       <c r="Q12">
-        <v>35.01904759999999</v>
+        <v>35.78702</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.1027378338250162</v>
+        <v>0.1005984708151708</v>
       </c>
       <c r="T12">
         <v>0.9084660396155396</v>
       </c>
       <c r="U12">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y12">
-        <v>6.600327778989701</v>
+        <v>9.10845233500579</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2388,13 +2388,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.09462682133108975</v>
+        <v>0.09197678633875186</v>
       </c>
       <c r="C13">
-        <v>1285.036418348999</v>
+        <v>1283.098575345767</v>
       </c>
       <c r="D13">
-        <v>1356.141418348999</v>
+        <v>1354.203575345766</v>
       </c>
       <c r="E13">
         <v>-145.195</v>
@@ -2421,45 +2421,45 @@
         <v>23.6</v>
       </c>
       <c r="M13">
-        <v>4.1468955</v>
+        <v>2.850099999999999</v>
       </c>
       <c r="N13">
-        <v>19.4531045</v>
+        <v>20.7499</v>
       </c>
       <c r="O13">
-        <v>4.27968299</v>
+        <v>4.564978000000001</v>
       </c>
       <c r="P13">
-        <v>15.17342151</v>
+        <v>16.184922</v>
       </c>
       <c r="Q13">
-        <v>34.57342151</v>
+        <v>35.58492200000001</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.1035169003720109</v>
+        <v>0.1014166138637661</v>
       </c>
       <c r="T13">
         <v>0.9166069774490008</v>
       </c>
       <c r="U13">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y13">
-        <v>5.691004270544074</v>
+        <v>8.28041121364163</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2470,13 +2470,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.09451979221966485</v>
+        <v>0.09195790894384999</v>
       </c>
       <c r="C14">
-        <v>1273.925257196634</v>
+        <v>1270.452848057791</v>
       </c>
       <c r="D14">
-        <v>1357.985257196634</v>
+        <v>1354.512848057791</v>
       </c>
       <c r="E14">
         <v>-132.24</v>
@@ -2503,45 +2503,45 @@
         <v>23.6</v>
       </c>
       <c r="M14">
-        <v>4.523886</v>
+        <v>3.280206</v>
       </c>
       <c r="N14">
-        <v>19.076114</v>
+        <v>20.319794</v>
       </c>
       <c r="O14">
-        <v>4.19674508</v>
+        <v>4.470354680000001</v>
       </c>
       <c r="P14">
-        <v>14.87936892</v>
+        <v>15.84943932</v>
       </c>
       <c r="Q14">
-        <v>34.27936892</v>
+        <v>35.24943932</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.1043136729768919</v>
+        <v>0.1022533510725568</v>
       </c>
       <c r="T14">
         <v>0.9249329365968587</v>
       </c>
       <c r="U14">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y14">
-        <v>5.216753914665401</v>
+        <v>7.194670090841856</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.09441276310823996</v>
+        <v>0.09184465154894809</v>
       </c>
       <c r="C15">
-        <v>1262.819116715867</v>
+        <v>1259.35634032414</v>
       </c>
       <c r="D15">
-        <v>1359.834116715867</v>
+        <v>1356.37134032414</v>
       </c>
       <c r="E15">
         <v>-119.285</v>
@@ -2585,45 +2585,45 @@
         <v>23.6</v>
       </c>
       <c r="M15">
-        <v>4.9008765</v>
+        <v>3.5535565</v>
       </c>
       <c r="N15">
-        <v>18.6991235</v>
+        <v>20.0464435</v>
       </c>
       <c r="O15">
-        <v>4.11380717</v>
+        <v>4.41021757</v>
       </c>
       <c r="P15">
-        <v>14.58531633</v>
+        <v>15.63622593</v>
       </c>
       <c r="Q15">
-        <v>33.98531633</v>
+        <v>35.03622593</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.1051287621933793</v>
+        <v>0.1031093236194806</v>
       </c>
       <c r="T15">
         <v>0.9334502971044374</v>
       </c>
       <c r="U15">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y15">
-        <v>4.815465151998832</v>
+        <v>6.641233930007868</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2634,13 +2634,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.09816049399681509</v>
+        <v>0.09189519415404621</v>
       </c>
       <c r="C16">
-        <v>1187.986242079134</v>
+        <v>1245.571333908845</v>
       </c>
       <c r="D16">
-        <v>1297.956242079134</v>
+        <v>1355.541333908845</v>
       </c>
       <c r="E16">
         <v>-106.33</v>
@@ -2667,45 +2667,45 @@
         <v>23.6</v>
       </c>
       <c r="M16">
-        <v>11.680228</v>
+        <v>4.098962</v>
       </c>
       <c r="N16">
-        <v>11.919772</v>
+        <v>19.501038</v>
       </c>
       <c r="O16">
-        <v>2.62234984</v>
+        <v>4.29022836</v>
       </c>
       <c r="P16">
-        <v>9.297422160000002</v>
+        <v>15.21080964</v>
       </c>
       <c r="Q16">
-        <v>28.69742216</v>
+        <v>34.61080964</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.1059628069730408</v>
+        <v>0.1039852025047049</v>
       </c>
       <c r="T16">
         <v>0.9421657357633553</v>
       </c>
       <c r="U16">
-        <v>0.0644</v>
+        <v>0.0226</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.050232</v>
+        <v>0.017628</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y16">
-        <v>2.020508503772358</v>
+        <v>5.757555205439816</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.09959240488539021</v>
+        <v>0.09179363675914434</v>
       </c>
       <c r="C17">
-        <v>1152.85073922247</v>
+        <v>1234.285132278779</v>
       </c>
       <c r="D17">
-        <v>1275.77573922247</v>
+        <v>1357.210132278778</v>
       </c>
       <c r="E17">
         <v>-93.375</v>
@@ -2749,45 +2749,45 @@
         <v>23.6</v>
       </c>
       <c r="M17">
-        <v>14.61324</v>
+        <v>4.391744999999999</v>
       </c>
       <c r="N17">
-        <v>8.986760000000002</v>
+        <v>19.208255</v>
       </c>
       <c r="O17">
-        <v>1.9770872</v>
+        <v>4.2258161</v>
       </c>
       <c r="P17">
-        <v>7.009672800000001</v>
+        <v>14.9824389</v>
       </c>
       <c r="Q17">
-        <v>26.4096728</v>
+        <v>34.3824389</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.1068164763357532</v>
+        <v>0.1048816903048757</v>
       </c>
       <c r="T17">
         <v>0.9510862435671888</v>
       </c>
       <c r="U17">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y17">
-        <v>1.614973818263438</v>
+        <v>5.373718191743829</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.09984495577396531</v>
+        <v>0.09169207936424247</v>
       </c>
       <c r="C18">
-        <v>1136.062096934291</v>
+        <v>1223.003044607636</v>
       </c>
       <c r="D18">
-        <v>1271.942096934291</v>
+        <v>1358.883044607636</v>
       </c>
       <c r="E18">
         <v>-80.41999999999999</v>
@@ -2831,45 +2831,45 @@
         <v>23.6</v>
       </c>
       <c r="M18">
-        <v>15.587456</v>
+        <v>4.684527999999999</v>
       </c>
       <c r="N18">
-        <v>8.012544</v>
+        <v>18.915472</v>
       </c>
       <c r="O18">
-        <v>1.76275968</v>
+        <v>4.16140384</v>
       </c>
       <c r="P18">
-        <v>6.24978432</v>
+        <v>14.75406816</v>
       </c>
       <c r="Q18">
-        <v>25.64978432</v>
+        <v>34.15406816</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1076904711594825</v>
+        <v>0.1057995230526696</v>
       </c>
       <c r="T18">
         <v>0.9602191444139708</v>
       </c>
       <c r="U18">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y18">
-        <v>1.514037954621973</v>
+        <v>5.03786080475984</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2880,13 +2880,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.1059693695389881</v>
+        <v>0.09159052196934059</v>
       </c>
       <c r="C19">
-        <v>1036.715235411869</v>
+        <v>1211.725086126927</v>
       </c>
       <c r="D19">
-        <v>1185.550235411869</v>
+        <v>1360.560086126927</v>
       </c>
       <c r="E19">
         <v>-67.46499999999997</v>
@@ -2913,45 +2913,45 @@
         <v>23.6</v>
       </c>
       <c r="M19">
-        <v>25.4371425</v>
+        <v>4.977311</v>
       </c>
       <c r="N19">
-        <v>-1.837142499999999</v>
+        <v>18.622689</v>
       </c>
       <c r="O19">
-        <v>-0.4041713499999998</v>
+        <v>4.09699158</v>
       </c>
       <c r="P19">
-        <v>-1.432971149999999</v>
+        <v>14.52569742</v>
       </c>
       <c r="Q19">
-        <v>17.96702885</v>
+        <v>33.92569742</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1088458898390249</v>
+        <v>0.1067394722522176</v>
       </c>
       <c r="T19">
-        <v>0.9722928134452742</v>
+        <v>0.9695721151606754</v>
       </c>
       <c r="U19">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V19">
-        <v>0.2041109766948076</v>
+        <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.09192518219174972</v>
+        <v>0.017628</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y19">
-        <v>0.92777716679458</v>
+        <v>4.741516051538673</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.1069663695389882</v>
+        <v>0.1041661362677647</v>
       </c>
       <c r="C20">
-        <v>1010.794998442548</v>
+        <v>1018.411956808059</v>
       </c>
       <c r="D20">
-        <v>1172.584998442548</v>
+        <v>1180.201956808059</v>
       </c>
       <c r="E20">
         <v>-54.50999999999999</v>
@@ -2995,37 +2995,37 @@
         <v>23.6</v>
       </c>
       <c r="M20">
-        <v>26.933445</v>
+        <v>25.41771</v>
       </c>
       <c r="N20">
-        <v>-3.333444999999998</v>
+        <v>-1.817709999999998</v>
       </c>
       <c r="O20">
-        <v>-0.7333578999999995</v>
+        <v>-0.3998961999999996</v>
       </c>
       <c r="P20">
-        <v>-2.600087099999998</v>
+        <v>-1.417813799999998</v>
       </c>
       <c r="Q20">
-        <v>16.7999129</v>
+        <v>17.9821862</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1099805958126716</v>
+        <v>0.107992506457521</v>
       </c>
       <c r="T20">
-        <v>0.9841500428775336</v>
+        <v>0.9820404403344812</v>
       </c>
       <c r="U20">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V20">
-        <v>0.1927714779895405</v>
+        <v>0.2042670248421278</v>
       </c>
       <c r="W20">
-        <v>0.09323489429220806</v>
+        <v>0.08673489429220807</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>0.8762339908615479</v>
+        <v>0.9284864765551264</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -3044,13 +3044,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.1079633695389881</v>
+        <v>0.1051631362677646</v>
       </c>
       <c r="C21">
-        <v>985.1552707758515</v>
+        <v>993.1825685838828</v>
       </c>
       <c r="D21">
-        <v>1159.900270775851</v>
+        <v>1167.927568583883</v>
       </c>
       <c r="E21">
         <v>-41.55499999999998</v>
@@ -3077,37 +3077,37 @@
         <v>23.6</v>
       </c>
       <c r="M21">
-        <v>28.4297475</v>
+        <v>26.829805</v>
       </c>
       <c r="N21">
-        <v>-4.829747499999996</v>
+        <v>-3.229804999999999</v>
       </c>
       <c r="O21">
-        <v>-1.062544449999999</v>
+        <v>-0.7105570999999997</v>
       </c>
       <c r="P21">
-        <v>-3.767203049999997</v>
+        <v>-2.519247899999999</v>
       </c>
       <c r="Q21">
-        <v>15.63279695</v>
+        <v>16.8807521</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1111433192177663</v>
+        <v>0.1092109324631694</v>
       </c>
       <c r="T21">
-        <v>0.9963000434068858</v>
+        <v>0.9941643963879934</v>
       </c>
       <c r="U21">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V21">
-        <v>0.1826256107269331</v>
+        <v>0.1935161287978053</v>
       </c>
       <c r="W21">
-        <v>0.09440674196103921</v>
+        <v>0.08790674196103922</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>0.8301164123951507</v>
+        <v>0.8796187672627513</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3126,13 +3126,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.1157907775369406</v>
+        <v>0.1061601362677647</v>
       </c>
       <c r="C22">
-        <v>881.4017703547098</v>
+        <v>968.2058656341868</v>
       </c>
       <c r="D22">
-        <v>1069.10177035471</v>
+        <v>1155.905865634187</v>
       </c>
       <c r="E22">
         <v>-28.59999999999997</v>
@@ -3159,45 +3159,45 @@
         <v>23.6</v>
       </c>
       <c r="M22">
-        <v>38.00997</v>
+        <v>28.2419</v>
       </c>
       <c r="N22">
-        <v>-14.40997</v>
+        <v>-4.6419</v>
       </c>
       <c r="O22">
-        <v>-3.1701934</v>
+        <v>-1.021218</v>
       </c>
       <c r="P22">
-        <v>-11.2397766</v>
+        <v>-3.620682</v>
       </c>
       <c r="Q22">
-        <v>8.160223399999998</v>
+        <v>15.779318</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.113073120705429</v>
+        <v>0.110459819118959</v>
       </c>
       <c r="T22">
-        <v>1.016465707049596</v>
+        <v>1.006591451342843</v>
       </c>
       <c r="U22">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V22">
-        <v>0.1365957405386008</v>
+        <v>0.183840322357915</v>
       </c>
       <c r="W22">
-        <v>0.1266614048629873</v>
+        <v>0.08896140486298726</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y22">
-        <v>0.6208897297209126</v>
+        <v>0.8356378288996137</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3208,13 +3208,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.1170997775369406</v>
+        <v>0.1143965916350269</v>
       </c>
       <c r="C23">
-        <v>854.6317921640225</v>
+        <v>864.6621327082416</v>
       </c>
       <c r="D23">
-        <v>1055.286792164022</v>
+        <v>1065.317132708242</v>
       </c>
       <c r="E23">
         <v>-15.64499999999998</v>
@@ -3241,37 +3241,37 @@
         <v>23.6</v>
       </c>
       <c r="M23">
-        <v>39.9104685</v>
+        <v>38.142111</v>
       </c>
       <c r="N23">
-        <v>-16.3104685</v>
+        <v>-14.542111</v>
       </c>
       <c r="O23">
-        <v>-3.58830307</v>
+        <v>-3.19926442</v>
       </c>
       <c r="P23">
-        <v>-12.72216543</v>
+        <v>-11.34284658</v>
       </c>
       <c r="Q23">
-        <v>6.67783457</v>
+        <v>8.057153419999999</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1143044260308141</v>
+        <v>0.11261051982586</v>
       </c>
       <c r="T23">
-        <v>1.029332361569211</v>
+        <v>1.027992012996852</v>
       </c>
       <c r="U23">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V23">
-        <v>0.1300911814653341</v>
+        <v>0.1361225129883346</v>
       </c>
       <c r="W23">
-        <v>0.1276156236790355</v>
+        <v>0.1211156236790355</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>0.591323552115155</v>
+        <v>0.6187386954015209</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3290,13 +3290,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.1184087775369406</v>
+        <v>0.1157055916350269</v>
       </c>
       <c r="C24">
-        <v>828.2142946652546</v>
+        <v>838.6016172434317</v>
       </c>
       <c r="D24">
-        <v>1041.824294665254</v>
+        <v>1052.211617243432</v>
       </c>
       <c r="E24">
         <v>-2.689999999999998</v>
@@ -3323,37 +3323,37 @@
         <v>23.6</v>
       </c>
       <c r="M24">
-        <v>41.810967</v>
+        <v>39.958402</v>
       </c>
       <c r="N24">
-        <v>-18.210967</v>
+        <v>-16.358402</v>
       </c>
       <c r="O24">
-        <v>-4.006412739999999</v>
+        <v>-3.59884844</v>
       </c>
       <c r="P24">
-        <v>-14.20455426</v>
+        <v>-12.75955356</v>
       </c>
       <c r="Q24">
-        <v>5.19544574</v>
+        <v>6.64044644</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1155673032876194</v>
+        <v>0.1139350136697813</v>
       </c>
       <c r="T24">
-        <v>1.042528930307278</v>
+        <v>1.041171397778863</v>
       </c>
       <c r="U24">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V24">
-        <v>0.1241779459441825</v>
+        <v>0.1299351260343194</v>
       </c>
       <c r="W24">
-        <v>0.1284830953299884</v>
+        <v>0.1219830953299884</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>0.5644452088371934</v>
+        <v>0.5906142092469064</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3372,13 +3372,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.1197177775369406</v>
+        <v>0.1170145916350269</v>
       </c>
       <c r="C25">
-        <v>802.1359577921961</v>
+        <v>812.8596309487747</v>
       </c>
       <c r="D25">
-        <v>1028.700957792196</v>
+        <v>1039.424630948775</v>
       </c>
       <c r="E25">
         <v>10.26500000000004</v>
@@ -3405,37 +3405,37 @@
         <v>23.6</v>
       </c>
       <c r="M25">
-        <v>43.7114655</v>
+        <v>41.774693</v>
       </c>
       <c r="N25">
-        <v>-20.1114655</v>
+        <v>-18.174693</v>
       </c>
       <c r="O25">
-        <v>-4.424522410000001</v>
+        <v>-3.99843246</v>
       </c>
       <c r="P25">
-        <v>-15.68694309</v>
+        <v>-14.17626054</v>
       </c>
       <c r="Q25">
-        <v>3.713056909999999</v>
+        <v>5.223739460000001</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.116862982551095</v>
+        <v>0.1152939099512071</v>
       </c>
       <c r="T25">
-        <v>1.056068267064515</v>
+        <v>1.054693104243523</v>
       </c>
       <c r="U25">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V25">
-        <v>0.1187789048161746</v>
+        <v>0.1242857727284794</v>
       </c>
       <c r="W25">
-        <v>0.1292751346634672</v>
+        <v>0.1227751346634672</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>0.5399041128007936</v>
+        <v>0.5649353305839975</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3454,13 +3454,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.1210267775369406</v>
+        <v>0.1183235916350269</v>
       </c>
       <c r="C26">
-        <v>776.3841242744418</v>
+        <v>787.4247004905415</v>
       </c>
       <c r="D26">
-        <v>1015.904124274442</v>
+        <v>1026.944700490541</v>
       </c>
       <c r="E26">
         <v>23.22000000000003</v>
@@ -3487,37 +3487,37 @@
         <v>23.6</v>
       </c>
       <c r="M26">
-        <v>45.611964</v>
+        <v>43.590984</v>
       </c>
       <c r="N26">
-        <v>-22.011964</v>
+        <v>-19.990984</v>
       </c>
       <c r="O26">
-        <v>-4.84263208</v>
+        <v>-4.39801648</v>
       </c>
       <c r="P26">
-        <v>-17.16933192</v>
+        <v>-15.59296752</v>
       </c>
       <c r="Q26">
-        <v>2.230668080000001</v>
+        <v>3.80703248</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1181927586372936</v>
+        <v>0.1166885666610914</v>
       </c>
       <c r="T26">
-        <v>1.069963902157469</v>
+        <v>1.068570645088833</v>
       </c>
       <c r="U26">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V26">
-        <v>0.1138297837821673</v>
+        <v>0.1191071988647928</v>
       </c>
       <c r="W26">
-        <v>0.130001170719156</v>
+        <v>0.123501170719156</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>0.5174081081007607</v>
+        <v>0.5413963584763308</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3536,13 +3536,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.1337106490257434</v>
+        <v>0.1196325916350269</v>
       </c>
       <c r="C27">
-        <v>654.1463965165071</v>
+        <v>762.2858970194068</v>
       </c>
       <c r="D27">
-        <v>906.6213965165072</v>
+        <v>1014.760897019407</v>
       </c>
       <c r="E27">
         <v>36.17500000000001</v>
@@ -3569,45 +3569,45 @@
         <v>23.6</v>
       </c>
       <c r="M27">
-        <v>61.601025</v>
+        <v>45.407275</v>
       </c>
       <c r="N27">
-        <v>-38.001025</v>
+        <v>-21.807275</v>
       </c>
       <c r="O27">
-        <v>-8.3602255</v>
+        <v>-4.7976005</v>
       </c>
       <c r="P27">
-        <v>-29.6407995</v>
+        <v>-17.0096745</v>
       </c>
       <c r="Q27">
-        <v>-10.2407995</v>
+        <v>2.390325500000003</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1202244907375279</v>
+        <v>0.1181204142165726</v>
       </c>
       <c r="T27">
-        <v>1.091194700458409</v>
+        <v>1.082818253690017</v>
       </c>
       <c r="U27">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V27">
-        <v>0.08428431182760353</v>
+        <v>0.1143429109102011</v>
       </c>
       <c r="W27">
-        <v>0.1741691238903898</v>
+        <v>0.1241691238903898</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y27">
-        <v>0.3831105083072888</v>
+        <v>0.5197405041372776</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3618,13 +3618,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.1354546490257434</v>
+        <v>0.1328203090295864</v>
       </c>
       <c r="C28">
-        <v>627.977135905667</v>
+        <v>640.9893616226959</v>
       </c>
       <c r="D28">
-        <v>893.407135905667</v>
+        <v>906.419361622696</v>
       </c>
       <c r="E28">
         <v>49.13</v>
@@ -3651,37 +3651,37 @@
         <v>23.6</v>
       </c>
       <c r="M28">
-        <v>64.065066</v>
+        <v>61.875671</v>
       </c>
       <c r="N28">
-        <v>-40.465066</v>
+        <v>-38.275671</v>
       </c>
       <c r="O28">
-        <v>-8.902314520000001</v>
+        <v>-8.420647619999999</v>
       </c>
       <c r="P28">
-        <v>-31.56275148</v>
+        <v>-29.85502338</v>
       </c>
       <c r="Q28">
-        <v>-12.16275148</v>
+        <v>-10.45502338</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1216356325042512</v>
+        <v>0.1203594973743093</v>
       </c>
       <c r="T28">
-        <v>1.105940574788928</v>
+        <v>1.105098265507487</v>
       </c>
       <c r="U28">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V28">
-        <v>0.08104260752654184</v>
+        <v>0.08391020115159641</v>
       </c>
       <c r="W28">
-        <v>0.1747856960484518</v>
+        <v>0.1682856960484517</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>0.3683754887570084</v>
+        <v>0.3814100052345292</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3700,13 +3700,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.1371986490257434</v>
+        <v>0.1345643090295864</v>
       </c>
       <c r="C29">
-        <v>602.1875446023562</v>
+        <v>615.4146826501594</v>
       </c>
       <c r="D29">
-        <v>880.5725446023562</v>
+        <v>893.7996826501595</v>
       </c>
       <c r="E29">
         <v>62.08500000000004</v>
@@ -3733,37 +3733,37 @@
         <v>23.6</v>
       </c>
       <c r="M29">
-        <v>66.52910700000001</v>
+        <v>64.2555045</v>
       </c>
       <c r="N29">
-        <v>-42.92910700000001</v>
+        <v>-40.6555045</v>
       </c>
       <c r="O29">
-        <v>-9.444403540000001</v>
+        <v>-8.94421099</v>
       </c>
       <c r="P29">
-        <v>-33.48470346000001</v>
+        <v>-31.71129351</v>
       </c>
       <c r="Q29">
-        <v>-14.08470346000001</v>
+        <v>-12.31129351</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.123085435689241</v>
+        <v>0.1218808603520396</v>
       </c>
       <c r="T29">
-        <v>1.121090445676448</v>
+        <v>1.120236597911699</v>
       </c>
       <c r="U29">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V29">
-        <v>0.07804102947000326</v>
+        <v>0.0808024159237595</v>
       </c>
       <c r="W29">
-        <v>0.1753565961948054</v>
+        <v>0.1688565961948054</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>0.3547319521363784</v>
+        <v>0.3672837087443613</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3782,13 +3782,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.1389426490257434</v>
+        <v>0.1363083090295863</v>
       </c>
       <c r="C30">
-        <v>576.7614914787101</v>
+        <v>590.1865750208094</v>
       </c>
       <c r="D30">
-        <v>868.1014914787102</v>
+        <v>881.5265750208094</v>
       </c>
       <c r="E30">
         <v>75.04000000000002</v>
@@ -3815,37 +3815,37 @@
         <v>23.6</v>
       </c>
       <c r="M30">
-        <v>68.99314800000001</v>
+        <v>66.635338</v>
       </c>
       <c r="N30">
-        <v>-45.393148</v>
+        <v>-43.035338</v>
       </c>
       <c r="O30">
-        <v>-9.98649256</v>
+        <v>-9.46777436</v>
       </c>
       <c r="P30">
-        <v>-35.40665544</v>
+        <v>-33.56756364</v>
       </c>
       <c r="Q30">
-        <v>-16.00665544</v>
+        <v>-14.16756364</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.1245755111849249</v>
+        <v>0.1234444834124846</v>
       </c>
       <c r="T30">
-        <v>1.136661146310843</v>
+        <v>1.135795439549362</v>
       </c>
       <c r="U30">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V30">
-        <v>0.07525384984607457</v>
+        <v>0.0779166153550538</v>
       </c>
       <c r="W30">
-        <v>0.1758867177592766</v>
+        <v>0.1693867177592766</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>0.3420629538457935</v>
+        <v>0.3541664334320628</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.1406866490257433</v>
+        <v>0.1380523090295863</v>
       </c>
       <c r="C31">
-        <v>551.6837464699402</v>
+        <v>565.2909554045584</v>
       </c>
       <c r="D31">
-        <v>855.9787464699402</v>
+        <v>869.5859554045584</v>
       </c>
       <c r="E31">
         <v>87.995</v>
@@ -3897,37 +3897,37 @@
         <v>23.6</v>
       </c>
       <c r="M31">
-        <v>71.457189</v>
+        <v>69.01517149999999</v>
       </c>
       <c r="N31">
-        <v>-47.857189</v>
+        <v>-45.41517149999999</v>
       </c>
       <c r="O31">
-        <v>-10.52858158</v>
+        <v>-9.991337729999998</v>
       </c>
       <c r="P31">
-        <v>-37.32860742</v>
+        <v>-35.42383376999999</v>
       </c>
       <c r="Q31">
-        <v>-17.92860742</v>
+        <v>-16.02383377</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1261075606382337</v>
+        <v>0.1250521521929421</v>
       </c>
       <c r="T31">
-        <v>1.152670458230714</v>
+        <v>1.151792558416254</v>
       </c>
       <c r="U31">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V31">
-        <v>0.07265888950655476</v>
+        <v>0.07522983551522437</v>
       </c>
       <c r="W31">
-        <v>0.1763802792158533</v>
+        <v>0.1698802792158533</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>0.3302676795752489</v>
+        <v>0.3419537977964744</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.1424306490257434</v>
+        <v>0.1397963090295863</v>
       </c>
       <c r="C32">
-        <v>526.9399185256082</v>
+        <v>540.7144933302425</v>
       </c>
       <c r="D32">
-        <v>844.1899185256082</v>
+        <v>857.9644933302425</v>
       </c>
       <c r="E32">
         <v>100.95</v>
@@ -3979,37 +3979,37 @@
         <v>23.6</v>
       </c>
       <c r="M32">
-        <v>73.92122999999999</v>
+        <v>71.395005</v>
       </c>
       <c r="N32">
-        <v>-50.32122999999999</v>
+        <v>-47.795005</v>
       </c>
       <c r="O32">
-        <v>-11.0706706</v>
+        <v>-10.5149011</v>
       </c>
       <c r="P32">
-        <v>-39.25055939999999</v>
+        <v>-37.2801039</v>
       </c>
       <c r="Q32">
-        <v>-19.85055939999999</v>
+        <v>-17.8801039</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1276833829330656</v>
+        <v>0.126705754367127</v>
       </c>
       <c r="T32">
-        <v>1.169137179062581</v>
+        <v>1.168246737822201</v>
       </c>
       <c r="U32">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V32">
-        <v>0.07023692652300294</v>
+        <v>0.07272217433138356</v>
       </c>
       <c r="W32">
-        <v>0.1768409365753248</v>
+        <v>0.1703409365753248</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>0.3192587569227406</v>
+        <v>0.3305553378699252</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.1441746490257433</v>
+        <v>0.1415403090295864</v>
       </c>
       <c r="C33">
-        <v>502.5163986185865</v>
+        <v>516.4445615416818</v>
       </c>
       <c r="D33">
-        <v>832.7213986185866</v>
+        <v>846.6495615416818</v>
       </c>
       <c r="E33">
         <v>113.905</v>
@@ -4061,37 +4061,37 @@
         <v>23.6</v>
       </c>
       <c r="M33">
-        <v>76.385271</v>
+        <v>73.7748385</v>
       </c>
       <c r="N33">
-        <v>-52.785271</v>
+        <v>-50.1748385</v>
       </c>
       <c r="O33">
-        <v>-11.61275962</v>
+        <v>-11.03846447</v>
       </c>
       <c r="P33">
-        <v>-41.17251138</v>
+        <v>-39.13637403</v>
       </c>
       <c r="Q33">
-        <v>-21.77251138</v>
+        <v>-19.73637403</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1293048812364433</v>
+        <v>0.1284072870391144</v>
       </c>
       <c r="T33">
-        <v>1.186081196150445</v>
+        <v>1.185177849964552</v>
       </c>
       <c r="U33">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V33">
-        <v>0.06797121921580929</v>
+        <v>0.0703762977400486</v>
       </c>
       <c r="W33">
-        <v>0.1772718741051531</v>
+        <v>0.1707718741051531</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="Y33">
-        <v>0.3089600873445877</v>
+        <v>0.3198922624547663</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.1459186490257434</v>
+        <v>0.1432843090295864</v>
       </c>
       <c r="C34">
-        <v>478.4003073371708</v>
+        <v>492.4691902308693</v>
       </c>
       <c r="D34">
-        <v>821.5603073371708</v>
+        <v>835.6291902308693</v>
       </c>
       <c r="E34">
         <v>126.86</v>
@@ -4143,37 +4143,37 @@
         <v>23.6</v>
       </c>
       <c r="M34">
-        <v>78.849312</v>
+        <v>76.15467200000001</v>
       </c>
       <c r="N34">
-        <v>-55.249312</v>
+        <v>-52.554672</v>
       </c>
       <c r="O34">
-        <v>-12.15484864</v>
+        <v>-11.56202784</v>
       </c>
       <c r="P34">
-        <v>-43.09446336</v>
+        <v>-40.99264416</v>
       </c>
       <c r="Q34">
-        <v>-23.69446336</v>
+        <v>-21.59264416000001</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1309740706663911</v>
+        <v>0.1301588647896896</v>
       </c>
       <c r="T34">
-        <v>1.203523566682069</v>
+        <v>1.202606935993442</v>
       </c>
       <c r="U34">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V34">
-        <v>0.06584711861531525</v>
+        <v>0.06817703843567206</v>
       </c>
       <c r="W34">
-        <v>0.177675878039367</v>
+        <v>0.171175878039367</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
@@ -4181,7 +4181,7 @@
         </is>
       </c>
       <c r="Y34">
-        <v>0.2993050846150693</v>
+        <v>0.3098956292530549</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.1476626490257434</v>
+        <v>0.1450283090295864</v>
       </c>
       <c r="C35">
-        <v>454.5794466360384</v>
+        <v>468.7770247995592</v>
       </c>
       <c r="D35">
-        <v>810.6944466360385</v>
+        <v>824.8920247995593</v>
       </c>
       <c r="E35">
         <v>139.8150000000001</v>
@@ -4225,37 +4225,37 @@
         <v>23.6</v>
       </c>
       <c r="M35">
-        <v>81.31335300000001</v>
+        <v>78.53450550000001</v>
       </c>
       <c r="N35">
-        <v>-57.71335300000001</v>
+        <v>-54.93450550000001</v>
       </c>
       <c r="O35">
-        <v>-12.69693766</v>
+        <v>-12.08559121</v>
       </c>
       <c r="P35">
-        <v>-45.01641534</v>
+        <v>-42.84891429</v>
       </c>
       <c r="Q35">
-        <v>-25.61641534</v>
+        <v>-23.44891429</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1326930866464864</v>
+        <v>0.131962728443267</v>
       </c>
       <c r="T35">
-        <v>1.221486604990757</v>
+        <v>1.220556293247075</v>
       </c>
       <c r="U35">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V35">
-        <v>0.06385175138454811</v>
+        <v>0.06611106757398505</v>
       </c>
       <c r="W35">
-        <v>0.1780553968866589</v>
+        <v>0.1715553968866589</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="Y35">
-        <v>0.2902352335661278</v>
+        <v>0.3005048526090229</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4274,13 +4274,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.1494066490257434</v>
+        <v>0.1467723090295864</v>
       </c>
       <c r="C36">
-        <v>431.0422553660454</v>
+        <v>445.3572868359246</v>
       </c>
       <c r="D36">
-        <v>800.1122553660455</v>
+        <v>814.4272868359246</v>
       </c>
       <c r="E36">
         <v>152.77</v>
@@ -4307,37 +4307,37 @@
         <v>23.6</v>
       </c>
       <c r="M36">
-        <v>83.77739400000002</v>
+        <v>80.91433900000001</v>
       </c>
       <c r="N36">
-        <v>-60.17739400000001</v>
+        <v>-57.31433900000001</v>
       </c>
       <c r="O36">
-        <v>-13.23902668</v>
+        <v>-12.60915458</v>
       </c>
       <c r="P36">
-        <v>-46.93836732000001</v>
+        <v>-44.70518442000001</v>
       </c>
       <c r="Q36">
-        <v>-27.53836732000001</v>
+        <v>-25.30518442000001</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.134464194019918</v>
+        <v>0.1338212546318014</v>
       </c>
       <c r="T36">
-        <v>1.239993977793647</v>
+        <v>1.239049570417486</v>
       </c>
       <c r="U36">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V36">
-        <v>0.06197375869676729</v>
+        <v>0.0641666244100443</v>
       </c>
       <c r="W36">
-        <v>0.1784125910958749</v>
+        <v>0.1719125910958749</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="Y36">
-        <v>0.281698903167124</v>
+        <v>0.2916664745911105</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4356,13 +4356,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1511506490257433</v>
+        <v>0.1485163090295863</v>
       </c>
       <c r="C37">
-        <v>407.7777682420274</v>
+        <v>422.1997380243482</v>
       </c>
       <c r="D37">
-        <v>789.8027682420275</v>
+        <v>804.2247380243483</v>
       </c>
       <c r="E37">
         <v>165.7250000000001</v>
@@ -4389,37 +4389,37 @@
         <v>23.6</v>
       </c>
       <c r="M37">
-        <v>86.24143500000001</v>
+        <v>83.29417250000002</v>
       </c>
       <c r="N37">
-        <v>-62.64143500000001</v>
+        <v>-59.69417250000001</v>
       </c>
       <c r="O37">
-        <v>-13.7811157</v>
+        <v>-13.13271795</v>
       </c>
       <c r="P37">
-        <v>-48.86031930000001</v>
+        <v>-46.56145455000001</v>
       </c>
       <c r="Q37">
-        <v>-29.46031930000001</v>
+        <v>-27.16145455000001</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1362897970048398</v>
+        <v>0.1357369662415214</v>
       </c>
       <c r="T37">
-        <v>1.259070808221241</v>
+        <v>1.258111871500832</v>
       </c>
       <c r="U37">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V37">
-        <v>0.06020307987685965</v>
+        <v>0.06233329228404303</v>
       </c>
       <c r="W37">
-        <v>0.1787493742074213</v>
+        <v>0.1722493742074213</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>0.2736503630766348</v>
+        <v>0.2833331467456501</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4438,13 +4438,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1528946490257433</v>
+        <v>0.1502603090295864</v>
       </c>
       <c r="C38">
-        <v>384.7755779424597</v>
+        <v>399.2946467343235</v>
       </c>
       <c r="D38">
-        <v>779.7555779424597</v>
+        <v>794.2746467343235</v>
       </c>
       <c r="E38">
         <v>178.68</v>
@@ -4471,37 +4471,37 @@
         <v>23.6</v>
       </c>
       <c r="M38">
-        <v>88.705476</v>
+        <v>85.67400600000001</v>
       </c>
       <c r="N38">
-        <v>-65.10547600000001</v>
+        <v>-62.074006</v>
       </c>
       <c r="O38">
-        <v>-14.32320472</v>
+        <v>-13.65628132</v>
       </c>
       <c r="P38">
-        <v>-50.78227128000001</v>
+        <v>-48.41772468000001</v>
       </c>
       <c r="Q38">
-        <v>-31.38227128000001</v>
+        <v>-29.01772468000001</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1381724500830405</v>
+        <v>0.1377125438390452</v>
       </c>
       <c r="T38">
-        <v>1.278743789599698</v>
+        <v>1.277769869493032</v>
       </c>
       <c r="U38">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V38">
-        <v>0.05853077210250245</v>
+        <v>0.06060181194281963</v>
       </c>
       <c r="W38">
-        <v>0.179067447146104</v>
+        <v>0.172567447146104</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>0.2660489641022837</v>
+        <v>0.275462781558271</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4520,13 +4520,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1546386490257433</v>
+        <v>0.1520043090295864</v>
       </c>
       <c r="C39">
-        <v>362.0258000655915</v>
+        <v>376.6327570592718</v>
       </c>
       <c r="D39">
-        <v>769.9608000655915</v>
+        <v>784.5677570592718</v>
       </c>
       <c r="E39">
         <v>191.635</v>
@@ -4553,37 +4553,37 @@
         <v>23.6</v>
       </c>
       <c r="M39">
-        <v>91.169517</v>
+        <v>88.0538395</v>
       </c>
       <c r="N39">
-        <v>-67.56951699999999</v>
+        <v>-64.45383949999999</v>
       </c>
       <c r="O39">
-        <v>-14.86529374</v>
+        <v>-14.17984469</v>
       </c>
       <c r="P39">
-        <v>-52.70422325999999</v>
+        <v>-50.27399480999999</v>
       </c>
       <c r="Q39">
-        <v>-33.30422325999999</v>
+        <v>-30.87399480999999</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1401148699256284</v>
+        <v>0.1397508381856967</v>
       </c>
       <c r="T39">
-        <v>1.299041310069535</v>
+        <v>1.298051930913557</v>
       </c>
       <c r="U39">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V39">
-        <v>0.05694885934297536</v>
+        <v>0.05896392513355423</v>
       </c>
       <c r="W39">
-        <v>0.1793683269529661</v>
+        <v>0.1728683269529661</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>0.2588584515589789</v>
+        <v>0.2680178415161557</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4602,13 +4602,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1563826490257434</v>
+        <v>0.1537483090295864</v>
       </c>
       <c r="C40">
-        <v>339.5190406940026</v>
+        <v>354.2052600982235</v>
       </c>
       <c r="D40">
-        <v>760.4090406940027</v>
+        <v>775.0952600982235</v>
       </c>
       <c r="E40">
         <v>204.59</v>
@@ -4635,37 +4635,37 @@
         <v>23.6</v>
       </c>
       <c r="M40">
-        <v>93.63355800000001</v>
+        <v>90.433673</v>
       </c>
       <c r="N40">
-        <v>-70.033558</v>
+        <v>-66.833673</v>
       </c>
       <c r="O40">
-        <v>-15.40738276</v>
+        <v>-14.70340806</v>
       </c>
       <c r="P40">
-        <v>-54.62617524</v>
+        <v>-52.13026494</v>
       </c>
       <c r="Q40">
-        <v>-35.22617524</v>
+        <v>-32.73026494</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.142119948472816</v>
+        <v>0.1418548839628853</v>
       </c>
       <c r="T40">
-        <v>1.319993589264205</v>
+        <v>1.318988252379904</v>
       </c>
       <c r="U40">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V40">
-        <v>0.05545020514973916</v>
+        <v>0.05741224289319754</v>
       </c>
       <c r="W40">
-        <v>0.1796533709805196</v>
+        <v>0.1731533709805196</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>0.252046387044269</v>
+        <v>0.2609647404236252</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4684,13 +4684,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1581266490257434</v>
+        <v>0.1554923090295864</v>
       </c>
       <c r="C41">
-        <v>317.24636634385</v>
+        <v>332.0037672930666</v>
       </c>
       <c r="D41">
-        <v>751.09136634385</v>
+        <v>765.8487672930667</v>
       </c>
       <c r="E41">
         <v>217.545</v>
@@ -4717,37 +4717,37 @@
         <v>23.6</v>
       </c>
       <c r="M41">
-        <v>96.097599</v>
+        <v>92.8135065</v>
       </c>
       <c r="N41">
-        <v>-72.49759900000001</v>
+        <v>-69.21350649999999</v>
       </c>
       <c r="O41">
-        <v>-15.94947178</v>
+        <v>-15.22697143</v>
       </c>
       <c r="P41">
-        <v>-56.54812722</v>
+        <v>-53.98653507</v>
       </c>
       <c r="Q41">
-        <v>-37.14812722000001</v>
+        <v>-34.58653507</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1441907673002392</v>
+        <v>0.1440279148475228</v>
       </c>
       <c r="T41">
-        <v>1.341632828432471</v>
+        <v>1.34061101061564</v>
       </c>
       <c r="U41">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V41">
-        <v>0.05402840501769456</v>
+        <v>0.05594013410106426</v>
       </c>
       <c r="W41">
-        <v>0.1799237973656345</v>
+        <v>0.1734237973656345</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="Y41">
-        <v>0.2455836591713388</v>
+        <v>0.2542733368230194</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1598706490257434</v>
+        <v>0.1572363090295864</v>
       </c>
       <c r="C42">
-        <v>295.1992760967267</v>
+        <v>310.020285651741</v>
       </c>
       <c r="D42">
-        <v>741.9992760967268</v>
+        <v>756.8202856517411</v>
       </c>
       <c r="E42">
         <v>230.5000000000001</v>
@@ -4799,37 +4799,37 @@
         <v>23.6</v>
       </c>
       <c r="M42">
-        <v>98.56164000000001</v>
+        <v>95.19334000000001</v>
       </c>
       <c r="N42">
-        <v>-74.96164000000002</v>
+        <v>-71.59334000000001</v>
       </c>
       <c r="O42">
-        <v>-16.49156080000001</v>
+        <v>-15.7505348</v>
       </c>
       <c r="P42">
-        <v>-58.47007920000001</v>
+        <v>-55.84280520000001</v>
       </c>
       <c r="Q42">
-        <v>-39.07007920000002</v>
+        <v>-36.44280520000001</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1463306134219098</v>
+        <v>0.1462733800949815</v>
       </c>
       <c r="T42">
-        <v>1.363993375573012</v>
+        <v>1.362954527459234</v>
       </c>
       <c r="U42">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V42">
-        <v>0.05267769489225219</v>
+        <v>0.05454163074853766</v>
       </c>
       <c r="W42">
-        <v>0.1801807024314936</v>
+        <v>0.1736807024314936</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="Y42">
-        <v>0.2394440676920554</v>
+        <v>0.2479165034024439</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4848,13 +4848,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1616146490257434</v>
+        <v>0.1589803090295864</v>
       </c>
       <c r="C43">
-        <v>273.3696757314081</v>
+        <v>288.2471947035473</v>
       </c>
       <c r="D43">
-        <v>733.1246757314082</v>
+        <v>748.0021947035474</v>
       </c>
       <c r="E43">
         <v>243.4550000000001</v>
@@ -4881,37 +4881,37 @@
         <v>23.6</v>
       </c>
       <c r="M43">
-        <v>101.025681</v>
+        <v>97.57317350000001</v>
       </c>
       <c r="N43">
-        <v>-77.42568100000003</v>
+        <v>-73.9731735</v>
       </c>
       <c r="O43">
-        <v>-17.03364982</v>
+        <v>-16.27409817</v>
       </c>
       <c r="P43">
-        <v>-60.39203118000002</v>
+        <v>-57.69907533</v>
       </c>
       <c r="Q43">
-        <v>-40.99203118000002</v>
+        <v>-38.29907533</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1485429967002473</v>
+        <v>0.1485949628084558</v>
       </c>
       <c r="T43">
-        <v>1.387111907362385</v>
+        <v>1.386055451653459</v>
       </c>
       <c r="U43">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V43">
-        <v>0.0513928730656119</v>
+        <v>0.05321134707174405</v>
       </c>
       <c r="W43">
-        <v>0.1804250755429206</v>
+        <v>0.1739250755429206</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>0.233603968480054</v>
+        <v>0.2418697594170185</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4930,13 +4930,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1633586490257434</v>
+        <v>0.1607243090295863</v>
       </c>
       <c r="C44">
-        <v>251.7498536900208</v>
+        <v>266.6772250469378</v>
       </c>
       <c r="D44">
-        <v>724.4598536900209</v>
+        <v>739.3872250469378</v>
       </c>
       <c r="E44">
         <v>256.41</v>
@@ -4963,37 +4963,37 @@
         <v>23.6</v>
       </c>
       <c r="M44">
-        <v>103.489722</v>
+        <v>99.953007</v>
       </c>
       <c r="N44">
-        <v>-79.88972200000001</v>
+        <v>-76.35300699999999</v>
       </c>
       <c r="O44">
-        <v>-17.57573884</v>
+        <v>-16.79766154</v>
       </c>
       <c r="P44">
-        <v>-62.31398316000001</v>
+        <v>-59.55534546</v>
       </c>
       <c r="Q44">
-        <v>-42.91398316000001</v>
+        <v>-40.15534546</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1508316690571481</v>
+        <v>0.1509966000982567</v>
       </c>
       <c r="T44">
-        <v>1.411027629903115</v>
+        <v>1.409952959440587</v>
       </c>
       <c r="U44">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V44">
-        <v>0.05016923323071638</v>
+        <v>0.05194441023670254</v>
       </c>
       <c r="W44">
-        <v>0.1806578118395177</v>
+        <v>0.1741578118395178</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>0.228041969230529</v>
+        <v>0.2361109556213752</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -5012,13 +5012,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1651026490257434</v>
+        <v>0.1624683090295864</v>
       </c>
       <c r="C45">
-        <v>230.3324587286457</v>
+        <v>245.3034383628543</v>
       </c>
       <c r="D45">
-        <v>715.9974587286457</v>
+        <v>730.9684383628543</v>
       </c>
       <c r="E45">
         <v>269.365</v>
@@ -5045,37 +5045,37 @@
         <v>23.6</v>
       </c>
       <c r="M45">
-        <v>105.953763</v>
+        <v>102.3328405</v>
       </c>
       <c r="N45">
-        <v>-82.35376299999999</v>
+        <v>-78.73284049999998</v>
       </c>
       <c r="O45">
-        <v>-18.11782786</v>
+        <v>-17.32122490999999</v>
       </c>
       <c r="P45">
-        <v>-64.23593513999998</v>
+        <v>-61.41161558999998</v>
       </c>
       <c r="Q45">
-        <v>-44.83593513999998</v>
+        <v>-42.01161558999998</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1532006457072735</v>
+        <v>0.1534825053631384</v>
       </c>
       <c r="T45">
-        <v>1.43578250060317</v>
+        <v>1.434688976272878</v>
       </c>
       <c r="U45">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V45">
-        <v>0.04900250687651368</v>
+        <v>0.05073640069631411</v>
       </c>
       <c r="W45">
-        <v>0.1808797231920871</v>
+        <v>0.1743797231920871</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>0.2227386676205168</v>
+        <v>0.2306200031650643</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -5094,13 +5094,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1668466490257434</v>
+        <v>0.1642123090295864</v>
       </c>
       <c r="C46">
-        <v>209.1104791162088</v>
+        <v>224.1192087781259</v>
       </c>
       <c r="D46">
-        <v>707.7304791162088</v>
+        <v>722.7392087781259</v>
       </c>
       <c r="E46">
         <v>282.32</v>
@@ -5127,37 +5127,37 @@
         <v>23.6</v>
       </c>
       <c r="M46">
-        <v>108.417804</v>
+        <v>104.712674</v>
       </c>
       <c r="N46">
-        <v>-84.817804</v>
+        <v>-81.112674</v>
       </c>
       <c r="O46">
-        <v>-18.65991688</v>
+        <v>-17.84478828</v>
       </c>
       <c r="P46">
-        <v>-66.15788712</v>
+        <v>-63.26788572</v>
       </c>
       <c r="Q46">
-        <v>-46.75788712</v>
+        <v>-43.86788572</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.155654228666332</v>
+        <v>0.1560571929589088</v>
       </c>
       <c r="T46">
-        <v>1.461421473828227</v>
+        <v>1.460308422277751</v>
       </c>
       <c r="U46">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V46">
-        <v>0.04788881353841109</v>
+        <v>0.04958330068048879</v>
       </c>
       <c r="W46">
-        <v>0.1810915476649942</v>
+        <v>0.1745915476649942</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>0.217676425174596</v>
+        <v>0.2253786394567672</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5176,13 +5176,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.1685906490257434</v>
+        <v>0.1659563090295864</v>
       </c>
       <c r="C47">
-        <v>188.0772232579544</v>
+        <v>203.1182054737139</v>
       </c>
       <c r="D47">
-        <v>699.6522232579545</v>
+        <v>714.693205473714</v>
       </c>
       <c r="E47">
         <v>295.275</v>
@@ -5209,37 +5209,37 @@
         <v>23.6</v>
       </c>
       <c r="M47">
-        <v>110.881845</v>
+        <v>107.0925075</v>
       </c>
       <c r="N47">
-        <v>-87.281845</v>
+        <v>-83.49250750000002</v>
       </c>
       <c r="O47">
-        <v>-19.2020059</v>
+        <v>-18.36835165</v>
       </c>
       <c r="P47">
-        <v>-68.0798391</v>
+        <v>-65.12415585000001</v>
       </c>
       <c r="Q47">
-        <v>-48.6798391</v>
+        <v>-45.72415585000001</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1581970328239016</v>
+        <v>0.1587255055581616</v>
       </c>
       <c r="T47">
-        <v>1.487992773352376</v>
+        <v>1.486859484500983</v>
       </c>
       <c r="U47">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V47">
-        <v>0.04682461768200195</v>
+        <v>0.0484814495542557</v>
       </c>
       <c r="W47">
-        <v>0.1812939577168832</v>
+        <v>0.1747939577168832</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>0.2128391712818272</v>
+        <v>0.2203702252466168</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5258,13 +5258,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.1703346490257434</v>
+        <v>0.1677003090295864</v>
       </c>
       <c r="C48">
-        <v>167.226301630963</v>
+        <v>182.2943764418628</v>
       </c>
       <c r="D48">
-        <v>691.7563016309631</v>
+        <v>706.8243764418629</v>
       </c>
       <c r="E48">
         <v>308.2300000000001</v>
@@ -5291,37 +5291,37 @@
         <v>23.6</v>
       </c>
       <c r="M48">
-        <v>113.345886</v>
+        <v>109.472341</v>
       </c>
       <c r="N48">
-        <v>-89.74588600000001</v>
+        <v>-85.87234100000001</v>
       </c>
       <c r="O48">
-        <v>-19.74409492</v>
+        <v>-18.89191502</v>
       </c>
       <c r="P48">
-        <v>-70.00179108</v>
+        <v>-66.98042598000001</v>
       </c>
       <c r="Q48">
-        <v>-50.60179108000001</v>
+        <v>-47.58042598000001</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1608340149132332</v>
+        <v>0.1614926445499795</v>
       </c>
       <c r="T48">
-        <v>1.515548195081124</v>
+        <v>1.514393919399149</v>
       </c>
       <c r="U48">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V48">
-        <v>0.04580669121065408</v>
+        <v>0.04742750499872839</v>
       </c>
       <c r="W48">
-        <v>0.1814875673317336</v>
+        <v>0.1749875673317336</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>0.2082122327757004</v>
+        <v>0.2155795681760382</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5340,13 +5340,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1720786490257434</v>
+        <v>0.1694443090295863</v>
       </c>
       <c r="C49">
-        <v>146.5516099292154</v>
+        <v>161.6419333045808</v>
       </c>
       <c r="D49">
-        <v>684.0366099292154</v>
+        <v>699.1269333045808</v>
       </c>
       <c r="E49">
         <v>321.185</v>
@@ -5373,37 +5373,37 @@
         <v>23.6</v>
       </c>
       <c r="M49">
-        <v>115.809927</v>
+        <v>111.8521745</v>
       </c>
       <c r="N49">
-        <v>-92.20992699999999</v>
+        <v>-88.2521745</v>
       </c>
       <c r="O49">
-        <v>-20.28618394</v>
+        <v>-19.41547839</v>
       </c>
       <c r="P49">
-        <v>-71.92374305999999</v>
+        <v>-68.83669610999999</v>
       </c>
       <c r="Q49">
-        <v>-52.52374305999999</v>
+        <v>-49.43669610999999</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1635705057606527</v>
+        <v>0.1643642038811111</v>
       </c>
       <c r="T49">
-        <v>1.544143444044919</v>
+        <v>1.542967389576491</v>
       </c>
       <c r="U49">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V49">
-        <v>0.04483208075936358</v>
+        <v>0.04641840914769162</v>
       </c>
       <c r="W49">
-        <v>0.181672938239569</v>
+        <v>0.1751729382395691</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5411,7 +5411,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>0.2037821852698345</v>
+        <v>0.2109927688531438</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5422,13 +5422,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1738226490257433</v>
+        <v>0.1711883090295864</v>
       </c>
       <c r="C50">
-        <v>126.0473133247635</v>
+        <v>141.1553371134044</v>
       </c>
       <c r="D50">
-        <v>676.4873133247636</v>
+        <v>691.5953371134044</v>
       </c>
       <c r="E50">
         <v>334.14</v>
@@ -5455,37 +5455,37 @@
         <v>23.6</v>
       </c>
       <c r="M50">
-        <v>118.273968</v>
+        <v>114.232008</v>
       </c>
       <c r="N50">
-        <v>-94.673968</v>
+        <v>-90.63200800000001</v>
       </c>
       <c r="O50">
-        <v>-20.82827296</v>
+        <v>-19.93904176</v>
       </c>
       <c r="P50">
-        <v>-73.84569504000001</v>
+        <v>-70.69296624</v>
       </c>
       <c r="Q50">
-        <v>-54.44569504000001</v>
+        <v>-51.29296624000001</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1664122462560498</v>
+        <v>0.1673462078019017</v>
       </c>
       <c r="T50">
-        <v>1.573838510276552</v>
+        <v>1.572639839376039</v>
       </c>
       <c r="U50">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V50">
-        <v>0.04389807907687683</v>
+        <v>0.04545135895711472</v>
       </c>
       <c r="W50">
-        <v>0.181850585359578</v>
+        <v>0.175350585359578</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>0.1995367230767129</v>
+        <v>0.2065970861687032</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5504,13 +5504,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1755666490257434</v>
+        <v>0.1729323090295864</v>
       </c>
       <c r="C51">
-        <v>105.7078317597262</v>
+        <v>120.8292850572504</v>
       </c>
       <c r="D51">
-        <v>669.1028317597262</v>
+        <v>684.2242850572504</v>
       </c>
       <c r="E51">
         <v>347.095</v>
@@ -5537,37 +5537,37 @@
         <v>23.6</v>
       </c>
       <c r="M51">
-        <v>120.738009</v>
+        <v>116.6118415</v>
       </c>
       <c r="N51">
-        <v>-97.13800899999998</v>
+        <v>-93.0118415</v>
       </c>
       <c r="O51">
-        <v>-21.37036197999999</v>
+        <v>-20.46260513</v>
       </c>
       <c r="P51">
-        <v>-75.76764701999998</v>
+        <v>-72.54923637</v>
       </c>
       <c r="Q51">
-        <v>-56.36764701999999</v>
+        <v>-53.14923637</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.169365427555188</v>
+        <v>0.1704451530529194</v>
       </c>
       <c r="T51">
-        <v>1.604698088909425</v>
+        <v>1.603475914657923</v>
       </c>
       <c r="U51">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V51">
-        <v>0.04300219991204262</v>
+        <v>0.04452378020288789</v>
       </c>
       <c r="W51">
-        <v>0.1820209815767295</v>
+        <v>0.1755209815767295</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="Y51">
-        <v>0.1954645450547392</v>
+        <v>0.2023808191040358</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5586,13 +5586,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1773106490257434</v>
+        <v>0.1746763090295863</v>
       </c>
       <c r="C52">
-        <v>85.52782619118943</v>
+        <v>100.658698011307</v>
       </c>
       <c r="D52">
-        <v>661.8778261911895</v>
+        <v>677.008698011307</v>
       </c>
       <c r="E52">
         <v>360.05</v>
@@ -5619,37 +5619,37 @@
         <v>23.6</v>
       </c>
       <c r="M52">
-        <v>123.20205</v>
+        <v>118.991675</v>
       </c>
       <c r="N52">
-        <v>-99.60204999999999</v>
+        <v>-95.39167499999999</v>
       </c>
       <c r="O52">
-        <v>-21.912451</v>
+        <v>-20.9861685</v>
       </c>
       <c r="P52">
-        <v>-77.68959899999999</v>
+        <v>-74.4055065</v>
       </c>
       <c r="Q52">
-        <v>-58.28959899999999</v>
+        <v>-55.0055065</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1724367361062918</v>
+        <v>0.1736680561139778</v>
       </c>
       <c r="T52">
-        <v>1.636792050687614</v>
+        <v>1.635545432951081</v>
       </c>
       <c r="U52">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V52">
-        <v>0.04214215591380176</v>
+        <v>0.04363330459883014</v>
       </c>
       <c r="W52">
-        <v>0.1821845619451949</v>
+        <v>0.1756845619451949</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="Y52">
-        <v>0.1915552541536444</v>
+        <v>0.1983332027219552</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5668,13 +5668,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1790546490257434</v>
+        <v>0.1764203090295864</v>
       </c>
       <c r="C53">
-        <v>65.5021857177569</v>
+        <v>80.63870886553707</v>
       </c>
       <c r="D53">
-        <v>654.807185717757</v>
+        <v>669.9437088655371</v>
       </c>
       <c r="E53">
         <v>373.0050000000001</v>
@@ -5701,37 +5701,37 @@
         <v>23.6</v>
       </c>
       <c r="M53">
-        <v>125.666091</v>
+        <v>121.3715085</v>
       </c>
       <c r="N53">
-        <v>-102.066091</v>
+        <v>-97.77150850000001</v>
       </c>
       <c r="O53">
-        <v>-22.45454002</v>
+        <v>-21.50973187</v>
       </c>
       <c r="P53">
-        <v>-79.61155098</v>
+        <v>-76.26177663000001</v>
       </c>
       <c r="Q53">
-        <v>-60.21155098000001</v>
+        <v>-56.86177663000002</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1756334041900937</v>
+        <v>0.1770225062387529</v>
       </c>
       <c r="T53">
-        <v>1.670195970089402</v>
+        <v>1.668923911174573</v>
       </c>
       <c r="U53">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V53">
-        <v>0.04131583913117819</v>
+        <v>0.0427777496066962</v>
       </c>
       <c r="W53">
-        <v>0.1823417273972499</v>
+        <v>0.1758417273972499</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>0.1877992687780827</v>
+        <v>0.1944443163940736</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5750,13 +5750,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.1807986490257434</v>
+        <v>0.1781643090295864</v>
       </c>
       <c r="C54">
-        <v>45.62601552251738</v>
+        <v>60.76465157642815</v>
       </c>
       <c r="D54">
-        <v>647.8860155225174</v>
+        <v>663.0246515764281</v>
       </c>
       <c r="E54">
         <v>385.96</v>
@@ -5783,37 +5783,37 @@
         <v>23.6</v>
       </c>
       <c r="M54">
-        <v>128.130132</v>
+        <v>123.751342</v>
       </c>
       <c r="N54">
-        <v>-104.530132</v>
+        <v>-100.151342</v>
       </c>
       <c r="O54">
-        <v>-22.99662904</v>
+        <v>-22.03329524</v>
       </c>
       <c r="P54">
-        <v>-81.53350296000001</v>
+        <v>-78.11804676</v>
       </c>
       <c r="Q54">
-        <v>-62.13350296000001</v>
+        <v>-58.71804676</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1789632667773873</v>
+        <v>0.1805167251187269</v>
       </c>
       <c r="T54">
-        <v>1.704991719466265</v>
+        <v>1.703693159324043</v>
       </c>
       <c r="U54">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V54">
-        <v>0.04052130376327092</v>
+        <v>0.0419551005757982</v>
       </c>
       <c r="W54">
-        <v>0.1824928480242259</v>
+        <v>0.1759928480242259</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>0.1841877443785042</v>
+        <v>0.1907050026172645</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5832,13 +5832,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1825426490257434</v>
+        <v>0.1799083090295864</v>
       </c>
       <c r="C55">
-        <v>25.89462557265631</v>
+        <v>41.03205089023425</v>
       </c>
       <c r="D55">
-        <v>641.1096255726563</v>
+        <v>656.2470508902343</v>
       </c>
       <c r="E55">
         <v>398.915</v>
@@ -5865,37 +5865,37 @@
         <v>23.6</v>
       </c>
       <c r="M55">
-        <v>130.594173</v>
+        <v>126.1311755</v>
       </c>
       <c r="N55">
-        <v>-106.994173</v>
+        <v>-102.5311755</v>
       </c>
       <c r="O55">
-        <v>-23.53871806</v>
+        <v>-22.55685861</v>
       </c>
       <c r="P55">
-        <v>-83.45545494000001</v>
+        <v>-79.97431688999998</v>
       </c>
       <c r="Q55">
-        <v>-64.05545494</v>
+        <v>-60.57431688999998</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1824348256449913</v>
+        <v>0.1841596341638062</v>
       </c>
       <c r="T55">
-        <v>1.741268139029377</v>
+        <v>1.739941949947959</v>
       </c>
       <c r="U55">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V55">
-        <v>0.03975675086207713</v>
+        <v>0.04116349490455673</v>
       </c>
       <c r="W55">
-        <v>0.1826382659860329</v>
+        <v>0.1761382659860329</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>0.1807125039185323</v>
+        <v>0.1871067950207125</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1842866490257434</v>
+        <v>0.1816523090295863</v>
       </c>
       <c r="C56">
-        <v>6.303520020887049</v>
+        <v>21.43661269015138</v>
       </c>
       <c r="D56">
-        <v>634.4735200208871</v>
+        <v>649.6066126901515</v>
       </c>
       <c r="E56">
         <v>411.8700000000001</v>
@@ -5947,37 +5947,37 @@
         <v>23.6</v>
       </c>
       <c r="M56">
-        <v>133.058214</v>
+        <v>128.511009</v>
       </c>
       <c r="N56">
-        <v>-109.458214</v>
+        <v>-104.911009</v>
       </c>
       <c r="O56">
-        <v>-24.08080708000001</v>
+        <v>-23.08042198</v>
       </c>
       <c r="P56">
-        <v>-85.37740692000003</v>
+        <v>-81.83058702000001</v>
       </c>
       <c r="Q56">
-        <v>-65.97740692000002</v>
+        <v>-62.43058702000001</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.186057321854665</v>
+        <v>0.1879609305586715</v>
       </c>
       <c r="T56">
-        <v>1.779121794225667</v>
+        <v>1.777766774946827</v>
       </c>
       <c r="U56">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V56">
-        <v>0.03902051473500163</v>
+        <v>0.04040120796187975</v>
       </c>
       <c r="W56">
-        <v>0.1827782980974027</v>
+        <v>0.1762782980974027</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>0.1773659760681892</v>
+        <v>0.1836418543721806</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5996,13 +5996,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1860306490257434</v>
+        <v>0.1833963090295864</v>
       </c>
       <c r="C57">
-        <v>-13.15161274162801</v>
+        <v>1.974214923670843</v>
       </c>
       <c r="D57">
-        <v>627.9733872583721</v>
+        <v>643.099214923671</v>
       </c>
       <c r="E57">
         <v>424.8250000000001</v>
@@ -6029,37 +6029,37 @@
         <v>23.6</v>
       </c>
       <c r="M57">
-        <v>135.522255</v>
+        <v>130.8908425</v>
       </c>
       <c r="N57">
-        <v>-111.922255</v>
+        <v>-107.2908425</v>
       </c>
       <c r="O57">
-        <v>-24.62289610000001</v>
+        <v>-23.60398535000001</v>
       </c>
       <c r="P57">
-        <v>-87.29935890000003</v>
+        <v>-83.68685715000002</v>
       </c>
       <c r="Q57">
-        <v>-67.89935890000004</v>
+        <v>-64.28685715000003</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1898408178958798</v>
+        <v>0.1919311734599753</v>
       </c>
       <c r="T57">
-        <v>1.818657834097349</v>
+        <v>1.817272703278979</v>
       </c>
       <c r="U57">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V57">
-        <v>0.03831105083072887</v>
+        <v>0.03966664054439102</v>
       </c>
       <c r="W57">
-        <v>0.1829132381319954</v>
+        <v>0.1764132381319954</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>0.1741411401396766</v>
+        <v>0.1803029115654137</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -6078,13 +6078,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1877746490257433</v>
+        <v>0.1851403090295863</v>
       </c>
       <c r="C58">
-        <v>-32.47490942711568</v>
+        <v>-17.35910093016525</v>
       </c>
       <c r="D58">
-        <v>621.6050905728844</v>
+        <v>636.7208990698348</v>
       </c>
       <c r="E58">
         <v>437.78</v>
@@ -6111,37 +6111,37 @@
         <v>23.6</v>
       </c>
       <c r="M58">
-        <v>137.986296</v>
+        <v>133.270676</v>
       </c>
       <c r="N58">
-        <v>-114.386296</v>
+        <v>-109.670676</v>
       </c>
       <c r="O58">
-        <v>-25.16498512</v>
+        <v>-24.12754872</v>
       </c>
       <c r="P58">
-        <v>-89.22131088</v>
+        <v>-85.54312728000001</v>
       </c>
       <c r="Q58">
-        <v>-69.82131088</v>
+        <v>-66.14312728000002</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1937962910298771</v>
+        <v>0.196081881947702</v>
       </c>
       <c r="T58">
-        <v>1.85999096669047</v>
+        <v>1.858574355626228</v>
       </c>
       <c r="U58">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V58">
-        <v>0.03762692492303728</v>
+        <v>0.0389583076775269</v>
       </c>
       <c r="W58">
-        <v>0.1830433588796383</v>
+        <v>0.1765433588796383</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>0.1710314769228967</v>
+        <v>0.1770832167160313</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6160,13 +6160,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1895186490257434</v>
+        <v>0.1868843090295864</v>
       </c>
       <c r="C59">
-        <v>-51.67034063032236</v>
+        <v>-36.56713789072694</v>
       </c>
       <c r="D59">
-        <v>615.3646593696777</v>
+        <v>630.4678621092731</v>
       </c>
       <c r="E59">
         <v>450.7350000000001</v>
@@ -6193,37 +6193,37 @@
         <v>23.6</v>
       </c>
       <c r="M59">
-        <v>140.450337</v>
+        <v>135.6505095</v>
       </c>
       <c r="N59">
-        <v>-116.850337</v>
+        <v>-112.0505095</v>
       </c>
       <c r="O59">
-        <v>-25.70707414000001</v>
+        <v>-24.65111209</v>
       </c>
       <c r="P59">
-        <v>-91.14326286000002</v>
+        <v>-87.39939741000001</v>
       </c>
       <c r="Q59">
-        <v>-71.74326286000002</v>
+        <v>-67.99939741</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.1979357396584789</v>
+        <v>0.2004256466441603</v>
       </c>
       <c r="T59">
-        <v>1.903246570566993</v>
+        <v>1.901797015059397</v>
       </c>
       <c r="U59">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V59">
-        <v>0.03696680343315944</v>
+        <v>0.03827482859546503</v>
       </c>
       <c r="W59">
-        <v>0.1831689139870131</v>
+        <v>0.1766689139870131</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.1680309246961792</v>
+        <v>0.1739764936157501</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6242,13 +6242,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1912626490257434</v>
+        <v>0.1886283090295864</v>
       </c>
       <c r="C60">
-        <v>-70.74171908408221</v>
+        <v>-55.65355103719867</v>
       </c>
       <c r="D60">
-        <v>609.2482809159178</v>
+        <v>624.3364489628013</v>
       </c>
       <c r="E60">
         <v>463.69</v>
@@ -6275,37 +6275,37 @@
         <v>23.6</v>
       </c>
       <c r="M60">
-        <v>142.914378</v>
+        <v>138.030343</v>
       </c>
       <c r="N60">
-        <v>-119.314378</v>
+        <v>-114.430343</v>
       </c>
       <c r="O60">
-        <v>-26.24916316</v>
+        <v>-25.17467546</v>
       </c>
       <c r="P60">
-        <v>-93.06521484000001</v>
+        <v>-89.25566753999999</v>
       </c>
       <c r="Q60">
-        <v>-73.66521484</v>
+        <v>-69.85566753999998</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.2022723048884426</v>
+        <v>0.204976257278545</v>
       </c>
       <c r="T60">
-        <v>1.948561965104302</v>
+        <v>1.947077896370335</v>
       </c>
       <c r="U60">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V60">
-        <v>0.03632944475327738</v>
+        <v>0.03761491775761219</v>
       </c>
       <c r="W60">
-        <v>0.1832901396079266</v>
+        <v>0.1767901396079266</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.1651338397876244</v>
+        <v>0.1709768988982372</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6324,13 +6324,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1930066490257434</v>
+        <v>0.1903723090295864</v>
       </c>
       <c r="C61">
-        <v>-89.69270742740321</v>
+        <v>-74.6218546330191</v>
       </c>
       <c r="D61">
-        <v>603.2522925725967</v>
+        <v>618.3231453669808</v>
       </c>
       <c r="E61">
         <v>476.6449999999999</v>
@@ -6357,37 +6357,37 @@
         <v>23.6</v>
       </c>
       <c r="M61">
-        <v>145.378419</v>
+        <v>140.4101765</v>
       </c>
       <c r="N61">
-        <v>-121.778419</v>
+        <v>-116.8101765</v>
       </c>
       <c r="O61">
-        <v>-26.79125218</v>
+        <v>-25.69823883</v>
       </c>
       <c r="P61">
-        <v>-94.98716681999998</v>
+        <v>-91.11193766999999</v>
       </c>
       <c r="Q61">
-        <v>-75.58716681999999</v>
+        <v>-71.71193767</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.2068204098857217</v>
+        <v>0.2097488489194851</v>
       </c>
       <c r="T61">
-        <v>1.996087866692212</v>
+        <v>1.994567601159855</v>
       </c>
       <c r="U61">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V61">
-        <v>0.03571369145237438</v>
+        <v>0.03697737677866961</v>
       </c>
       <c r="W61">
-        <v>0.1834072558857584</v>
+        <v>0.1769072558857584</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6395,7 +6395,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.1623349611471562</v>
+        <v>0.168078985357589</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6406,13 +6406,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1947506490257433</v>
+        <v>0.1921163090295864</v>
       </c>
       <c r="C62">
-        <v>-108.5268255193151</v>
+        <v>-93.47542884253073</v>
       </c>
       <c r="D62">
-        <v>597.3731744806848</v>
+        <v>612.4245711574692</v>
       </c>
       <c r="E62">
         <v>489.6</v>
@@ -6439,37 +6439,37 @@
         <v>23.6</v>
       </c>
       <c r="M62">
-        <v>147.84246</v>
+        <v>142.79001</v>
       </c>
       <c r="N62">
-        <v>-124.24246</v>
+        <v>-119.19001</v>
       </c>
       <c r="O62">
-        <v>-27.3333412</v>
+        <v>-26.2218022</v>
       </c>
       <c r="P62">
-        <v>-96.90911879999999</v>
+        <v>-92.9682078</v>
       </c>
       <c r="Q62">
-        <v>-77.50911879999998</v>
+        <v>-73.56820780000001</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.2115959201328648</v>
+        <v>0.2147600701424723</v>
       </c>
       <c r="T62">
-        <v>2.045990063359517</v>
+        <v>2.044431791188851</v>
       </c>
       <c r="U62">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V62">
-        <v>0.03511846326150147</v>
+        <v>0.03636108716569178</v>
       </c>
       <c r="W62">
-        <v>0.1835204682876624</v>
+        <v>0.1770204682876624</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>0.1596293784613703</v>
+        <v>0.1652776689349625</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6488,13 +6488,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.1964946490257434</v>
+        <v>0.1938603090295863</v>
       </c>
       <c r="C63">
-        <v>-127.2474573291753</v>
+        <v>-112.2175260668175</v>
       </c>
       <c r="D63">
-        <v>591.6075426708247</v>
+        <v>606.6374739331825</v>
       </c>
       <c r="E63">
         <v>502.555</v>
@@ -6521,37 +6521,37 @@
         <v>23.6</v>
       </c>
       <c r="M63">
-        <v>150.306501</v>
+        <v>145.1698435</v>
       </c>
       <c r="N63">
-        <v>-126.706501</v>
+        <v>-121.5698435</v>
       </c>
       <c r="O63">
-        <v>-27.87543022</v>
+        <v>-26.74536557</v>
       </c>
       <c r="P63">
-        <v>-98.83107078</v>
+        <v>-94.82447793000001</v>
       </c>
       <c r="Q63">
-        <v>-79.43107078</v>
+        <v>-75.42447793000002</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.2166163283413998</v>
+        <v>0.2200282770692023</v>
       </c>
       <c r="T63">
-        <v>2.098451347035402</v>
+        <v>2.096853119168053</v>
       </c>
       <c r="U63">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V63">
-        <v>0.03454275074901784</v>
+        <v>0.03576500376953289</v>
       </c>
       <c r="W63">
-        <v>0.1836299688075368</v>
+        <v>0.1771299688075368</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.1570125034046265</v>
+        <v>0.1625681989524221</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6570,13 +6570,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.1982386490257434</v>
+        <v>0.1956043090295864</v>
       </c>
       <c r="C64">
-        <v>-145.8578574317726</v>
+        <v>-130.8512769236829</v>
       </c>
       <c r="D64">
-        <v>585.9521425682275</v>
+        <v>600.9587230763171</v>
       </c>
       <c r="E64">
         <v>515.51</v>
@@ -6603,37 +6603,37 @@
         <v>23.6</v>
       </c>
       <c r="M64">
-        <v>152.770542</v>
+        <v>147.549677</v>
       </c>
       <c r="N64">
-        <v>-129.170542</v>
+        <v>-123.949677</v>
       </c>
       <c r="O64">
-        <v>-28.41751924</v>
+        <v>-27.26892894</v>
       </c>
       <c r="P64">
-        <v>-100.75302276</v>
+        <v>-96.68074806000001</v>
       </c>
       <c r="Q64">
-        <v>-81.35302276000002</v>
+        <v>-77.28074806000001</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.2219009685609103</v>
+        <v>0.2255737580447076</v>
       </c>
       <c r="T64">
-        <v>2.153673750904755</v>
+        <v>2.152033464409317</v>
       </c>
       <c r="U64">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V64">
-        <v>0.03398560960790464</v>
+        <v>0.0351881488700243</v>
       </c>
       <c r="W64">
-        <v>0.1837359370525765</v>
+        <v>0.1772359370525765</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.1544800436722938</v>
+        <v>0.1599461312273831</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6652,13 +6652,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.1999826490257434</v>
+        <v>0.1973483090295863</v>
       </c>
       <c r="C65">
-        <v>-164.3611571334245</v>
+        <v>-149.3796958948697</v>
       </c>
       <c r="D65">
-        <v>580.4038428665755</v>
+        <v>595.3853041051303</v>
       </c>
       <c r="E65">
         <v>528.4649999999999</v>
@@ -6685,37 +6685,37 @@
         <v>23.6</v>
       </c>
       <c r="M65">
-        <v>155.234583</v>
+        <v>149.9295105</v>
       </c>
       <c r="N65">
-        <v>-131.634583</v>
+        <v>-126.3295105</v>
       </c>
       <c r="O65">
-        <v>-28.95960826</v>
+        <v>-27.79249231</v>
       </c>
       <c r="P65">
-        <v>-102.67497474</v>
+        <v>-98.53701819</v>
       </c>
       <c r="Q65">
-        <v>-83.27497474</v>
+        <v>-79.13701818999999</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.2274712650085024</v>
+        <v>0.2314189947486187</v>
       </c>
       <c r="T65">
-        <v>2.211881149577856</v>
+        <v>2.210196531014974</v>
       </c>
       <c r="U65">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V65">
-        <v>0.03344615548714425</v>
+        <v>0.03462960682446836</v>
       </c>
       <c r="W65">
-        <v>0.1838385412263452</v>
+        <v>0.1773385412263452</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.1520279794870193</v>
+        <v>0.1574073037475834</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6734,13 +6734,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.2017266490257434</v>
+        <v>0.1990923090295864</v>
       </c>
       <c r="C66">
-        <v>-182.760370253294</v>
+        <v>-167.805686661927</v>
       </c>
       <c r="D66">
-        <v>574.959629746706</v>
+        <v>589.914313338073</v>
       </c>
       <c r="E66">
         <v>541.4200000000001</v>
@@ -6767,37 +6767,37 @@
         <v>23.6</v>
       </c>
       <c r="M66">
-        <v>157.698624</v>
+        <v>152.309344</v>
       </c>
       <c r="N66">
-        <v>-134.098624</v>
+        <v>-128.709344</v>
       </c>
       <c r="O66">
-        <v>-29.50169728</v>
+        <v>-28.31605568000001</v>
       </c>
       <c r="P66">
-        <v>-104.59692672</v>
+        <v>-100.39328832</v>
       </c>
       <c r="Q66">
-        <v>-85.19692671999999</v>
+        <v>-80.99328832</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.2333510223698498</v>
+        <v>0.2375889668249691</v>
       </c>
       <c r="T66">
-        <v>2.273322292621686</v>
+        <v>2.271590879098723</v>
       </c>
       <c r="U66">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V66">
-        <v>0.03292355930765763</v>
+        <v>0.03408851921783603</v>
       </c>
       <c r="W66">
-        <v>0.1839379390196835</v>
+        <v>0.1774379390196835</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6805,7 +6805,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.1496525423075347</v>
+        <v>0.1549478146265274</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6816,13 +6816,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.2034706490257434</v>
+        <v>0.2008363090295864</v>
       </c>
       <c r="C67">
-        <v>-201.0583985823573</v>
+        <v>-186.1320471505678</v>
       </c>
       <c r="D67">
-        <v>569.6166014176428</v>
+        <v>584.5429528494323</v>
       </c>
       <c r="E67">
         <v>554.375</v>
@@ -6849,37 +6849,37 @@
         <v>23.6</v>
       </c>
       <c r="M67">
-        <v>160.162665</v>
+        <v>154.6891775</v>
       </c>
       <c r="N67">
-        <v>-136.562665</v>
+        <v>-131.0891775</v>
       </c>
       <c r="O67">
-        <v>-30.0437863</v>
+        <v>-28.83961905</v>
       </c>
       <c r="P67">
-        <v>-106.5188787</v>
+        <v>-102.24955845</v>
       </c>
       <c r="Q67">
-        <v>-87.11887870000001</v>
+        <v>-82.84955845000002</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.2395667658661312</v>
+        <v>0.2441115087342541</v>
       </c>
       <c r="T67">
-        <v>2.338274358125163</v>
+        <v>2.336493475644402</v>
       </c>
       <c r="U67">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V67">
-        <v>0.03241704301061674</v>
+        <v>0.03356408046063857</v>
       </c>
       <c r="W67">
-        <v>0.1840342784193807</v>
+        <v>0.1775342784193807</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.1473501955028033</v>
+        <v>0.1525640020938116</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6898,13 +6898,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.2052146490257434</v>
+        <v>0.2025803090295863</v>
       </c>
       <c r="C68">
-        <v>-219.2580370407977</v>
+        <v>-204.3614743019303</v>
       </c>
       <c r="D68">
-        <v>564.3719629592024</v>
+        <v>579.2685256980698</v>
       </c>
       <c r="E68">
         <v>567.3300000000002</v>
@@ -6931,37 +6931,37 @@
         <v>23.6</v>
       </c>
       <c r="M68">
-        <v>162.626706</v>
+        <v>157.069011</v>
       </c>
       <c r="N68">
-        <v>-139.026706</v>
+        <v>-133.469011</v>
       </c>
       <c r="O68">
-        <v>-30.58587532</v>
+        <v>-29.36318242</v>
       </c>
       <c r="P68">
-        <v>-108.44083068</v>
+        <v>-104.10582858</v>
       </c>
       <c r="Q68">
-        <v>-89.04083068000003</v>
+        <v>-84.70582858000003</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.2461481413327821</v>
+        <v>0.2510177295793791</v>
       </c>
       <c r="T68">
-        <v>2.407047133364138</v>
+        <v>2.405213871986884</v>
       </c>
       <c r="U68">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V68">
-        <v>0.03192587569227406</v>
+        <v>0.03305553378699252</v>
       </c>
       <c r="W68">
-        <v>0.1841276984433295</v>
+        <v>0.1776276984433295</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.1451176167830639</v>
+        <v>0.1502524263045114</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6980,13 +6980,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.2069586490257434</v>
+        <v>0.2043243090295864</v>
       </c>
       <c r="C69">
-        <v>-237.3619785530819</v>
+        <v>-222.4965685878391</v>
       </c>
       <c r="D69">
-        <v>559.2230214469181</v>
+        <v>574.088431412161</v>
       </c>
       <c r="E69">
         <v>580.2850000000001</v>
@@ -7013,37 +7013,37 @@
         <v>23.6</v>
       </c>
       <c r="M69">
-        <v>165.090747</v>
+        <v>159.4488445</v>
       </c>
       <c r="N69">
-        <v>-141.490747</v>
+        <v>-135.8488445</v>
       </c>
       <c r="O69">
-        <v>-31.12796434000001</v>
+        <v>-29.88674579</v>
       </c>
       <c r="P69">
-        <v>-110.36278266</v>
+        <v>-105.96209871</v>
       </c>
       <c r="Q69">
-        <v>-90.96278266000002</v>
+        <v>-86.56209871000001</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2531283880398361</v>
+        <v>0.2583425092636028</v>
       </c>
       <c r="T69">
-        <v>2.479987955587294</v>
+        <v>2.478099140834972</v>
       </c>
       <c r="U69">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V69">
-        <v>0.03144937008492668</v>
+        <v>0.03256216761106726</v>
       </c>
       <c r="W69">
-        <v>0.184218329809847</v>
+        <v>0.1777183298098469</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.1429516822042122</v>
+        <v>0.1480098527775784</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -7062,13 +7062,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.2087026490257434</v>
+        <v>0.2060683090295864</v>
       </c>
       <c r="C70">
-        <v>-255.3728186585917</v>
+        <v>-240.5398382859452</v>
       </c>
       <c r="D70">
-        <v>554.1671813414084</v>
+        <v>569.0001617140549</v>
       </c>
       <c r="E70">
         <v>593.24</v>
@@ -7095,37 +7095,37 @@
         <v>23.6</v>
       </c>
       <c r="M70">
-        <v>167.554788</v>
+        <v>161.828678</v>
       </c>
       <c r="N70">
-        <v>-143.954788</v>
+        <v>-138.228678</v>
       </c>
       <c r="O70">
-        <v>-31.67005336000001</v>
+        <v>-30.41030916000001</v>
       </c>
       <c r="P70">
-        <v>-112.28473464</v>
+        <v>-107.81836884</v>
       </c>
       <c r="Q70">
-        <v>-92.88473464000003</v>
+        <v>-88.41836884000003</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.260544900166081</v>
+        <v>0.2661250876780903</v>
       </c>
       <c r="T70">
-        <v>2.557487579199397</v>
+        <v>2.555539738986065</v>
       </c>
       <c r="U70">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V70">
-        <v>0.03098687934838364</v>
+        <v>0.03208331220502215</v>
       </c>
       <c r="W70">
-        <v>0.1843062955479375</v>
+        <v>0.1778062955479374</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7133,7 +7133,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.140849451583562</v>
+        <v>0.1458332372955552</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7144,13 +7144,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.2104466490257434</v>
+        <v>0.2078123090295864</v>
       </c>
       <c r="C71">
-        <v>-273.293059874389</v>
+        <v>-258.4937035295176</v>
       </c>
       <c r="D71">
-        <v>549.2019401256111</v>
+        <v>564.0012964704825</v>
       </c>
       <c r="E71">
         <v>606.1950000000002</v>
@@ -7177,37 +7177,37 @@
         <v>23.6</v>
       </c>
       <c r="M71">
-        <v>170.018829</v>
+        <v>164.2085115</v>
       </c>
       <c r="N71">
-        <v>-146.418829</v>
+        <v>-140.6085115</v>
       </c>
       <c r="O71">
-        <v>-32.21214238000001</v>
+        <v>-30.93387253000001</v>
       </c>
       <c r="P71">
-        <v>-114.20668662</v>
+        <v>-109.67463897</v>
       </c>
       <c r="Q71">
-        <v>-94.80668662000002</v>
+        <v>-90.27463897000001</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.268439896945632</v>
+        <v>0.2744097679257707</v>
       </c>
       <c r="T71">
-        <v>2.63998717852841</v>
+        <v>2.637976504759809</v>
       </c>
       <c r="U71">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V71">
-        <v>0.03053779414043605</v>
+        <v>0.03161833666581893</v>
       </c>
       <c r="W71">
-        <v>0.1843917115544891</v>
+        <v>0.1778917115544891</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.1388081551838002</v>
+        <v>0.1437197121173588</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7226,13 +7226,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.2121906490257434</v>
+        <v>0.2095563090295864</v>
       </c>
       <c r="C72">
-        <v>-291.1251158255279</v>
+        <v>-276.3605001456192</v>
       </c>
       <c r="D72">
-        <v>544.3248841744722</v>
+        <v>559.089499854381</v>
       </c>
       <c r="E72">
         <v>619.1500000000001</v>
@@ -7259,37 +7259,37 @@
         <v>23.6</v>
       </c>
       <c r="M72">
-        <v>172.48287</v>
+        <v>166.588345</v>
       </c>
       <c r="N72">
-        <v>-148.88287</v>
+        <v>-142.988345</v>
       </c>
       <c r="O72">
-        <v>-32.75423140000001</v>
+        <v>-31.45743590000001</v>
       </c>
       <c r="P72">
-        <v>-116.1286386</v>
+        <v>-111.5309091</v>
       </c>
       <c r="Q72">
-        <v>-96.72863860000001</v>
+        <v>-92.13090910000003</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.2768612268438197</v>
+        <v>0.283246760189963</v>
       </c>
       <c r="T72">
-        <v>2.727986751146024</v>
+        <v>2.725909054918469</v>
       </c>
       <c r="U72">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V72">
-        <v>0.03010153993842982</v>
+        <v>0.03116664614202152</v>
       </c>
       <c r="W72">
-        <v>0.1844746871037106</v>
+        <v>0.1779746871037107</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.1368251815383174</v>
+        <v>0.1416665733728251</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7308,13 +7308,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.2139346490257433</v>
+        <v>0.2113003090295864</v>
       </c>
       <c r="C73">
-        <v>-308.8713151572354</v>
+        <v>-294.1424832944577</v>
       </c>
       <c r="D73">
-        <v>539.5336848427646</v>
+        <v>554.2625167055422</v>
       </c>
       <c r="E73">
         <v>632.105</v>
@@ -7341,37 +7341,37 @@
         <v>23.6</v>
       </c>
       <c r="M73">
-        <v>174.946911</v>
+        <v>168.9681785</v>
       </c>
       <c r="N73">
-        <v>-151.346911</v>
+        <v>-145.3681785</v>
       </c>
       <c r="O73">
-        <v>-33.29632042</v>
+        <v>-31.98099927</v>
       </c>
       <c r="P73">
-        <v>-118.05059058</v>
+        <v>-113.38717923</v>
       </c>
       <c r="Q73">
-        <v>-98.65059058</v>
+        <v>-93.98717923000001</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.2858633381142962</v>
+        <v>0.2926932001965134</v>
       </c>
       <c r="T73">
-        <v>2.822055259806231</v>
+        <v>2.819905918881174</v>
       </c>
       <c r="U73">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V73">
-        <v>0.02967757458718434</v>
+        <v>0.0307276792949508</v>
       </c>
       <c r="W73">
-        <v>0.1845553253135175</v>
+        <v>0.1780553253135175</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.1348980663053834</v>
+        <v>0.1396712695225036</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7390,13 +7390,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.2156786490257434</v>
+        <v>0.2130443090295863</v>
       </c>
       <c r="C74">
-        <v>-326.5339052422806</v>
+        <v>-311.8418309218268</v>
       </c>
       <c r="D74">
-        <v>534.8260947577194</v>
+        <v>549.5181690781732</v>
       </c>
       <c r="E74">
         <v>645.0599999999999</v>
@@ -7423,37 +7423,37 @@
         <v>23.6</v>
       </c>
       <c r="M74">
-        <v>177.410952</v>
+        <v>171.348012</v>
       </c>
       <c r="N74">
-        <v>-153.810952</v>
+        <v>-147.748012</v>
       </c>
       <c r="O74">
-        <v>-33.83840944000001</v>
+        <v>-32.50456264</v>
       </c>
       <c r="P74">
-        <v>-119.97254256</v>
+        <v>-115.24344936</v>
       </c>
       <c r="Q74">
-        <v>-100.57254256</v>
+        <v>-95.84344936000002</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.295508457332664</v>
+        <v>0.3028143859178175</v>
       </c>
       <c r="T74">
-        <v>2.922842947656453</v>
+        <v>2.920616844555502</v>
       </c>
       <c r="U74">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V74">
-        <v>0.02926538605125122</v>
+        <v>0.03030090597140981</v>
       </c>
       <c r="W74">
-        <v>0.184633723573052</v>
+        <v>0.178133723573052</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.1330244820511419</v>
+        <v>0.1377313907791354</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7472,13 +7472,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.2174226490257433</v>
+        <v>0.2147883090295863</v>
       </c>
       <c r="C75">
-        <v>-344.115055695935</v>
+        <v>-329.460647035737</v>
       </c>
       <c r="D75">
-        <v>530.1999443040651</v>
+        <v>544.8543529642631</v>
       </c>
       <c r="E75">
         <v>658.0150000000001</v>
@@ -7505,37 +7505,37 @@
         <v>23.6</v>
       </c>
       <c r="M75">
-        <v>179.874993</v>
+        <v>173.7278455</v>
       </c>
       <c r="N75">
-        <v>-156.274993</v>
+        <v>-150.1278455</v>
       </c>
       <c r="O75">
-        <v>-34.38049846000001</v>
+        <v>-33.02812601</v>
       </c>
       <c r="P75">
-        <v>-121.89449454</v>
+        <v>-117.09971949</v>
       </c>
       <c r="Q75">
-        <v>-102.49449454</v>
+        <v>-97.69971949000001</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.3058680298264663</v>
+        <v>0.3136852890999588</v>
       </c>
       <c r="T75">
-        <v>3.031096390162248</v>
+        <v>3.028787838798298</v>
       </c>
       <c r="U75">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V75">
-        <v>0.02886449035191901</v>
+        <v>0.02988582506769187</v>
       </c>
       <c r="W75">
-        <v>0.184709973935065</v>
+        <v>0.178209973935065</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.1312022288723591</v>
+        <v>0.1358446593985994</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7554,13 +7554,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.2191666490257433</v>
+        <v>0.2165323090295863</v>
       </c>
       <c r="C76">
-        <v>-361.6168617100776</v>
+        <v>-347.0009648175989</v>
       </c>
       <c r="D76">
-        <v>525.6531382899224</v>
+        <v>540.2690351824011</v>
       </c>
       <c r="E76">
         <v>670.97</v>
@@ -7587,37 +7587,37 @@
         <v>23.6</v>
       </c>
       <c r="M76">
-        <v>182.339034</v>
+        <v>176.107679</v>
       </c>
       <c r="N76">
-        <v>-158.739034</v>
+        <v>-152.507679</v>
       </c>
       <c r="O76">
-        <v>-34.92258748</v>
+        <v>-33.55168938</v>
       </c>
       <c r="P76">
-        <v>-123.81644652</v>
+        <v>-118.95598962</v>
       </c>
       <c r="Q76">
-        <v>-104.41644652</v>
+        <v>-99.55598961999999</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.3170244925120996</v>
+        <v>0.3253924156038034</v>
       </c>
       <c r="T76">
-        <v>3.147677020553103</v>
+        <v>3.145279678752078</v>
       </c>
       <c r="U76">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V76">
-        <v>0.02847442967148768</v>
+        <v>0.02948196256677712</v>
       </c>
       <c r="W76">
-        <v>0.184784163476483</v>
+        <v>0.178284163476483</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.1294292257794895</v>
+        <v>0.1340089207580778</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7636,13 +7636,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.2209106490257434</v>
+        <v>0.2182763090295863</v>
       </c>
       <c r="C77">
-        <v>-379.041347217203</v>
+        <v>-364.4647495776203</v>
       </c>
       <c r="D77">
-        <v>521.183652782797</v>
+        <v>535.7602504223797</v>
       </c>
       <c r="E77">
         <v>683.925</v>
@@ -7669,37 +7669,37 @@
         <v>23.6</v>
       </c>
       <c r="M77">
-        <v>184.803075</v>
+        <v>178.4875125</v>
       </c>
       <c r="N77">
-        <v>-161.203075</v>
+        <v>-154.8875125</v>
       </c>
       <c r="O77">
-        <v>-35.4646765</v>
+        <v>-34.07525275</v>
       </c>
       <c r="P77">
-        <v>-125.7383985</v>
+        <v>-120.81225975</v>
       </c>
       <c r="Q77">
-        <v>-106.3383985</v>
+        <v>-101.41225975</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.3290734722125836</v>
+        <v>0.3380361122279555</v>
       </c>
       <c r="T77">
-        <v>3.273584101375228</v>
+        <v>3.271090865902162</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V77">
-        <v>0.02809477060920118</v>
+        <v>0.02908886973255342</v>
       </c>
       <c r="W77">
-        <v>0.1848563746301299</v>
+        <v>0.1783563746301299</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.1277035027690963</v>
+        <v>0.1322221351479701</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7718,13 +7718,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.2226546490257434</v>
+        <v>0.2200203090295863</v>
       </c>
       <c r="C78">
-        <v>-396.3904678943752</v>
+        <v>-381.8539015634426</v>
       </c>
       <c r="D78">
-        <v>516.7895321056249</v>
+        <v>531.3260984365575</v>
       </c>
       <c r="E78">
         <v>696.8800000000001</v>
@@ -7751,37 +7751,37 @@
         <v>23.6</v>
       </c>
       <c r="M78">
-        <v>187.267116</v>
+        <v>180.867346</v>
       </c>
       <c r="N78">
-        <v>-163.667116</v>
+        <v>-157.267346</v>
       </c>
       <c r="O78">
-        <v>-36.00676552</v>
+        <v>-34.59881612</v>
       </c>
       <c r="P78">
-        <v>-127.66035048</v>
+        <v>-122.66852988</v>
       </c>
       <c r="Q78">
-        <v>-108.26035048</v>
+        <v>-103.26852988</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.3421265335547746</v>
+        <v>0.3517334502374537</v>
       </c>
       <c r="T78">
-        <v>3.409983438932529</v>
+        <v>3.407386318648085</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V78">
-        <v>0.02772510257486958</v>
+        <v>0.02870612144659877</v>
       </c>
       <c r="W78">
-        <v>0.1849266854902598</v>
+        <v>0.1784266854902598</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.1260231935221344</v>
+        <v>0.1304823702118125</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7800,13 +7800,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.2243986490257434</v>
+        <v>0.2217643090295863</v>
       </c>
       <c r="C79">
-        <v>-413.6661140164935</v>
+        <v>-399.1702586304514</v>
       </c>
       <c r="D79">
-        <v>512.4688859835065</v>
+        <v>526.9647413695486</v>
       </c>
       <c r="E79">
         <v>709.835</v>
@@ -7833,37 +7833,37 @@
         <v>23.6</v>
       </c>
       <c r="M79">
-        <v>189.731157</v>
+        <v>183.2471795</v>
       </c>
       <c r="N79">
-        <v>-166.131157</v>
+        <v>-159.6471795</v>
       </c>
       <c r="O79">
-        <v>-36.54885454</v>
+        <v>-35.12237949</v>
       </c>
       <c r="P79">
-        <v>-129.58230246</v>
+        <v>-124.52480001</v>
       </c>
       <c r="Q79">
-        <v>-110.18230246</v>
+        <v>-105.12480001</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.35631464370933</v>
+        <v>0.366621861117343</v>
       </c>
       <c r="T79">
-        <v>3.558243588451335</v>
+        <v>3.555533549893655</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V79">
-        <v>0.02736503630766348</v>
+        <v>0.02833331467456502</v>
       </c>
       <c r="W79">
-        <v>0.1849951700942824</v>
+        <v>0.1784951700942824</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.1243865286711976</v>
+        <v>0.1287877939752955</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7882,13 +7882,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.2261426490257434</v>
+        <v>0.2235083090295863</v>
       </c>
       <c r="C80">
-        <v>-430.870113167616</v>
+        <v>-416.4155987816432</v>
       </c>
       <c r="D80">
-        <v>508.2198868323841</v>
+        <v>522.6744012183568</v>
       </c>
       <c r="E80">
         <v>722.79</v>
@@ -7915,37 +7915,37 @@
         <v>23.6</v>
       </c>
       <c r="M80">
-        <v>192.195198</v>
+        <v>185.627013</v>
       </c>
       <c r="N80">
-        <v>-168.595198</v>
+        <v>-162.027013</v>
       </c>
       <c r="O80">
-        <v>-37.09094356</v>
+        <v>-35.64594286000001</v>
       </c>
       <c r="P80">
-        <v>-131.50425444</v>
+        <v>-126.38107014</v>
       </c>
       <c r="Q80">
-        <v>-112.10425444</v>
+        <v>-106.98107014</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.3717925820597542</v>
+        <v>0.3828637638954041</v>
       </c>
       <c r="T80">
-        <v>3.719981933380942</v>
+        <v>3.717148711252457</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V80">
-        <v>0.02701420250884728</v>
+        <v>0.02797006705053213</v>
       </c>
       <c r="W80">
-        <v>0.1850618986828173</v>
+        <v>0.1785618986828172</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.1227918295856695</v>
+        <v>0.1271366684115096</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7964,13 +7964,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.2278866490257434</v>
+        <v>0.2252523090295864</v>
       </c>
       <c r="C81">
-        <v>-448.0042328185098</v>
+        <v>-433.5916425844207</v>
       </c>
       <c r="D81">
-        <v>504.0407671814903</v>
+        <v>518.4533574155794</v>
       </c>
       <c r="E81">
         <v>735.7450000000001</v>
@@ -7997,37 +7997,37 @@
         <v>23.6</v>
       </c>
       <c r="M81">
-        <v>194.659239</v>
+        <v>188.0068465</v>
       </c>
       <c r="N81">
-        <v>-171.059239</v>
+        <v>-164.4068465</v>
       </c>
       <c r="O81">
-        <v>-37.63303258000001</v>
+        <v>-36.16950623</v>
       </c>
       <c r="P81">
-        <v>-133.42620642</v>
+        <v>-128.23734027</v>
       </c>
       <c r="Q81">
-        <v>-114.02620642</v>
+        <v>-108.83734027</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.3887446097768853</v>
+        <v>0.4006525145570901</v>
       </c>
       <c r="T81">
-        <v>3.897123930208605</v>
+        <v>3.89415579274067</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.02667225057835554</v>
+        <v>0.02761601556887983</v>
       </c>
       <c r="W81">
-        <v>0.1851269379399968</v>
+        <v>0.1786269379399968</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.1212375026288888</v>
+        <v>0.1255273434949082</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -8046,13 +8046,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.2296306490257433</v>
+        <v>0.2269963090295863</v>
       </c>
       <c r="C82">
-        <v>-465.0701827780671</v>
+        <v>-450.7000554712229</v>
       </c>
       <c r="D82">
-        <v>499.929817221933</v>
+        <v>514.2999445287772</v>
       </c>
       <c r="E82">
         <v>748.7</v>
@@ -8079,37 +8079,37 @@
         <v>23.6</v>
       </c>
       <c r="M82">
-        <v>197.12328</v>
+        <v>190.38668</v>
       </c>
       <c r="N82">
-        <v>-173.52328</v>
+        <v>-166.78668</v>
       </c>
       <c r="O82">
-        <v>-38.1751216</v>
+        <v>-36.6930696</v>
       </c>
       <c r="P82">
-        <v>-135.3481584</v>
+        <v>-130.0936104</v>
       </c>
       <c r="Q82">
-        <v>-115.9481584</v>
+        <v>-110.6936104</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.4073918402657296</v>
+        <v>0.4202201402849445</v>
       </c>
       <c r="T82">
-        <v>4.091980126719036</v>
+        <v>4.088863582377703</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.0263388474461261</v>
+        <v>0.02727081537426883</v>
       </c>
       <c r="W82">
-        <v>0.1851903512157468</v>
+        <v>0.1786903512157468</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.1197220338460276</v>
+        <v>0.1239582517012219</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -8128,13 +8128,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.2313746490257434</v>
+        <v>0.2287403090295864</v>
       </c>
       <c r="C83">
-        <v>-482.0696175257305</v>
+        <v>-467.7424499304481</v>
       </c>
       <c r="D83">
-        <v>495.8853824742695</v>
+        <v>510.2125500695519</v>
       </c>
       <c r="E83">
         <v>761.655</v>
@@ -8161,37 +8161,37 @@
         <v>23.6</v>
       </c>
       <c r="M83">
-        <v>199.587321</v>
+        <v>192.7665135</v>
       </c>
       <c r="N83">
-        <v>-175.987321</v>
+        <v>-169.1665135</v>
       </c>
       <c r="O83">
-        <v>-38.71721062</v>
+        <v>-37.21663297</v>
       </c>
       <c r="P83">
-        <v>-137.27011038</v>
+        <v>-131.94988053</v>
       </c>
       <c r="Q83">
-        <v>-117.87011038</v>
+        <v>-112.54988053</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.4280019371218206</v>
+        <v>0.4418475160894154</v>
       </c>
       <c r="T83">
-        <v>4.307347501809511</v>
+        <v>4.304066928818636</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.02601367649000108</v>
+        <v>0.02693413864125317</v>
       </c>
       <c r="W83">
-        <v>0.1852521987316018</v>
+        <v>0.1787521987316018</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.1182439840454594</v>
+        <v>0.1224279029147871</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8210,13 +8210,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.2331186490257434</v>
+        <v>0.2304843090295864</v>
       </c>
       <c r="C84">
-        <v>-499.0041384316086</v>
+        <v>-484.7203875937264</v>
       </c>
       <c r="D84">
-        <v>491.9058615683916</v>
+        <v>506.1896124062738</v>
       </c>
       <c r="E84">
         <v>774.6100000000001</v>
@@ -8243,37 +8243,37 @@
         <v>23.6</v>
       </c>
       <c r="M84">
-        <v>202.051362</v>
+        <v>195.146347</v>
       </c>
       <c r="N84">
-        <v>-178.451362</v>
+        <v>-171.546347</v>
       </c>
       <c r="O84">
-        <v>-39.25929964000001</v>
+        <v>-37.74019634</v>
       </c>
       <c r="P84">
-        <v>-139.19206236</v>
+        <v>-133.80615066</v>
       </c>
       <c r="Q84">
-        <v>-119.79206236</v>
+        <v>-114.40615066</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.4509020447396995</v>
+        <v>0.4658779336499384</v>
       </c>
       <c r="T84">
-        <v>4.546644585243373</v>
+        <v>4.543181758197449</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.02569643653280595</v>
+        <v>0.02660567353587203</v>
       </c>
       <c r="W84">
-        <v>0.1853125377714603</v>
+        <v>0.1788125377714603</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.116801984240027</v>
+        <v>0.1209348797085091</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2348626490257434</v>
+        <v>0.2322283090295864</v>
       </c>
       <c r="C85">
-        <v>-515.875295870545</v>
+        <v>-501.6353812252188</v>
       </c>
       <c r="D85">
-        <v>487.9897041294552</v>
+        <v>502.2296187747813</v>
       </c>
       <c r="E85">
         <v>787.5650000000001</v>
@@ -8325,37 +8325,37 @@
         <v>23.6</v>
       </c>
       <c r="M85">
-        <v>204.515403</v>
+        <v>197.5261805</v>
       </c>
       <c r="N85">
-        <v>-180.915403</v>
+        <v>-173.9261805</v>
       </c>
       <c r="O85">
-        <v>-39.80138866000001</v>
+        <v>-38.26375971</v>
       </c>
       <c r="P85">
-        <v>-141.11401434</v>
+        <v>-135.66242079</v>
       </c>
       <c r="Q85">
-        <v>-121.71401434</v>
+        <v>-116.26242079</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.4764962826655643</v>
+        <v>0.4927354591587584</v>
       </c>
       <c r="T85">
-        <v>4.814094266728278</v>
+        <v>4.810427743973769</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.02538684091192877</v>
+        <v>0.02628512325230731</v>
       </c>
       <c r="W85">
-        <v>0.1853714228585512</v>
+        <v>0.1788714228585511</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.1153947314178581</v>
+        <v>0.1194778329650332</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8374,13 +8374,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.2366066490257434</v>
+        <v>0.2339723090295864</v>
       </c>
       <c r="C86">
-        <v>-532.6845912360009</v>
+        <v>-518.4888966182655</v>
       </c>
       <c r="D86">
-        <v>484.1354087639992</v>
+        <v>498.3311033817345</v>
       </c>
       <c r="E86">
         <v>800.52</v>
@@ -8407,37 +8407,37 @@
         <v>23.6</v>
       </c>
       <c r="M86">
-        <v>206.979444</v>
+        <v>199.906014</v>
       </c>
       <c r="N86">
-        <v>-183.379444</v>
+        <v>-176.306014</v>
       </c>
       <c r="O86">
-        <v>-40.34347768</v>
+        <v>-38.78732308</v>
       </c>
       <c r="P86">
-        <v>-143.03596632</v>
+        <v>-137.51869092</v>
       </c>
       <c r="Q86">
-        <v>-123.63596632</v>
+        <v>-118.11869092</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.5052898003321619</v>
+        <v>0.5229501753561805</v>
       </c>
       <c r="T86">
-        <v>5.114975158398793</v>
+        <v>5.111079477972127</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.02508461661535819</v>
+        <v>0.02597220511835127</v>
       </c>
       <c r="W86">
-        <v>0.1854289059197589</v>
+        <v>0.1789289059197589</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.1140209846152644</v>
+        <v>0.1180554778106876</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8456,13 +8456,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2383506490257434</v>
+        <v>0.2357163090295863</v>
       </c>
       <c r="C87">
-        <v>-549.433478859248</v>
+        <v>-535.2823544043791</v>
       </c>
       <c r="D87">
-        <v>480.341521140752</v>
+        <v>494.4926455956208</v>
       </c>
       <c r="E87">
         <v>813.4749999999999</v>
@@ -8489,37 +8489,37 @@
         <v>23.6</v>
       </c>
       <c r="M87">
-        <v>209.443485</v>
+        <v>202.2858475</v>
       </c>
       <c r="N87">
-        <v>-185.843485</v>
+        <v>-178.6858475</v>
       </c>
       <c r="O87">
-        <v>-40.88556670000001</v>
+        <v>-39.31088645</v>
       </c>
       <c r="P87">
-        <v>-144.9579183</v>
+        <v>-139.37496105</v>
       </c>
       <c r="Q87">
-        <v>-125.5579183</v>
+        <v>-119.97496105</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.5379224536876394</v>
+        <v>0.5571935203799259</v>
       </c>
       <c r="T87">
-        <v>5.455973502292046</v>
+        <v>5.451818109836936</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.02478950347870692</v>
+        <v>0.02566664976401773</v>
       </c>
       <c r="W87">
-        <v>0.18548503643835</v>
+        <v>0.1789850364383499</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.1126795612668496</v>
+        <v>0.1166665898364442</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8538,13 +8538,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2400946490257434</v>
+        <v>0.2374603090295864</v>
       </c>
       <c r="C88">
-        <v>-566.1233678390262</v>
+        <v>-552.0171317792727</v>
       </c>
       <c r="D88">
-        <v>476.6066321609737</v>
+        <v>490.7128682207272</v>
       </c>
       <c r="E88">
         <v>826.4299999999998</v>
@@ -8571,37 +8571,37 @@
         <v>23.6</v>
       </c>
       <c r="M88">
-        <v>211.907526</v>
+        <v>204.665681</v>
       </c>
       <c r="N88">
-        <v>-188.307526</v>
+        <v>-181.065681</v>
       </c>
       <c r="O88">
-        <v>-41.42765572</v>
+        <v>-39.83444982</v>
       </c>
       <c r="P88">
-        <v>-146.87987028</v>
+        <v>-141.23123118</v>
       </c>
       <c r="Q88">
-        <v>-127.47987028</v>
+        <v>-121.83123118</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.575216914665328</v>
+        <v>0.5963287718356349</v>
       </c>
       <c r="T88">
-        <v>5.845685895312907</v>
+        <v>5.841233689111004</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.02450125343825684</v>
+        <v>0.02536820034815706</v>
       </c>
       <c r="W88">
-        <v>0.1855398615960435</v>
+        <v>0.1790398615960436</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.1113693338102584</v>
+        <v>0.115310001582532</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8620,13 +8620,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2418386490257433</v>
+        <v>0.2392043090295863</v>
       </c>
       <c r="C89">
-        <v>-582.7556237864995</v>
+        <v>-568.6945641503286</v>
       </c>
       <c r="D89">
-        <v>472.9293762135005</v>
+        <v>486.9904358496714</v>
       </c>
       <c r="E89">
         <v>839.385</v>
@@ -8653,37 +8653,37 @@
         <v>23.6</v>
       </c>
       <c r="M89">
-        <v>214.371567</v>
+        <v>207.0455145</v>
       </c>
       <c r="N89">
-        <v>-190.771567</v>
+        <v>-183.4455145</v>
       </c>
       <c r="O89">
-        <v>-41.96974474000001</v>
+        <v>-40.35801319</v>
       </c>
       <c r="P89">
-        <v>-148.80182226</v>
+        <v>-143.08750131</v>
       </c>
       <c r="Q89">
-        <v>-129.40182226</v>
+        <v>-123.68750131</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.6182489850241992</v>
+        <v>0.6414848312076068</v>
       </c>
       <c r="T89">
-        <v>6.295354041106206</v>
+        <v>6.290559357504157</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.02421962983551825</v>
+        <v>0.02507661183840812</v>
       </c>
       <c r="W89">
-        <v>0.1855934264052844</v>
+        <v>0.1790934264052844</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.1100892265250829</v>
+        <v>0.1139845992654914</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8702,13 +8702,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2435826490257434</v>
+        <v>0.2409483090295863</v>
       </c>
       <c r="C90">
-        <v>-599.3315704900525</v>
+        <v>-585.3159467096476</v>
       </c>
       <c r="D90">
-        <v>469.3084295099474</v>
+        <v>483.3240532903524</v>
       </c>
       <c r="E90">
         <v>852.3399999999999</v>
@@ -8735,37 +8735,37 @@
         <v>23.6</v>
       </c>
       <c r="M90">
-        <v>216.835608</v>
+        <v>209.425348</v>
       </c>
       <c r="N90">
-        <v>-193.235608</v>
+        <v>-185.825348</v>
       </c>
       <c r="O90">
-        <v>-42.51183376</v>
+        <v>-40.88157656</v>
       </c>
       <c r="P90">
-        <v>-150.72377424</v>
+        <v>-144.94377144</v>
       </c>
       <c r="Q90">
-        <v>-131.32377424</v>
+        <v>-125.54377144</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.6684530671095493</v>
+        <v>0.6941669004749074</v>
       </c>
       <c r="T90">
-        <v>6.819966877865059</v>
+        <v>6.81477263729617</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.02394440676920554</v>
+        <v>0.02479165034024439</v>
       </c>
       <c r="W90">
-        <v>0.1856457738324971</v>
+        <v>0.1791457738324971</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.1088382125872979</v>
+        <v>0.1126893197283836</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2453266490257434</v>
+        <v>0.2426923090295863</v>
       </c>
       <c r="C91">
-        <v>-615.8524915041896</v>
+        <v>-601.8825359365726</v>
       </c>
       <c r="D91">
-        <v>465.7425084958105</v>
+        <v>479.7124640634275</v>
       </c>
       <c r="E91">
         <v>865.2950000000001</v>
@@ -8817,37 +8817,37 @@
         <v>23.6</v>
       </c>
       <c r="M91">
-        <v>219.299649</v>
+        <v>211.8051815</v>
       </c>
       <c r="N91">
-        <v>-195.6996490000001</v>
+        <v>-188.2051815</v>
       </c>
       <c r="O91">
-        <v>-43.05392278000001</v>
+        <v>-41.40513993000001</v>
       </c>
       <c r="P91">
-        <v>-152.64572622</v>
+        <v>-146.80004157</v>
       </c>
       <c r="Q91">
-        <v>-133.24572622</v>
+        <v>-127.40004157</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.7277851641195082</v>
+        <v>0.7564275277908081</v>
       </c>
       <c r="T91">
-        <v>7.439963866761881</v>
+        <v>7.434297422504914</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.02367536849089986</v>
+        <v>0.02451309247125288</v>
       </c>
       <c r="W91">
-        <v>0.1856969449130308</v>
+        <v>0.1791969449130308</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.1076153113222721</v>
+        <v>0.111423147596604</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8866,13 +8866,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2470706490257434</v>
+        <v>0.2444363090295864</v>
       </c>
       <c r="C92">
-        <v>-632.3196316665425</v>
+        <v>-618.3955510333451</v>
       </c>
       <c r="D92">
-        <v>462.2303683334576</v>
+        <v>476.1544489666549</v>
       </c>
       <c r="E92">
         <v>878.25</v>
@@ -8899,37 +8899,37 @@
         <v>23.6</v>
       </c>
       <c r="M92">
-        <v>221.76369</v>
+        <v>214.185015</v>
       </c>
       <c r="N92">
-        <v>-198.16369</v>
+        <v>-190.585015</v>
       </c>
       <c r="O92">
-        <v>-43.59601180000001</v>
+        <v>-41.92870330000001</v>
       </c>
       <c r="P92">
-        <v>-154.5676782</v>
+        <v>-148.6563117</v>
       </c>
       <c r="Q92">
-        <v>-135.1676782</v>
+        <v>-129.2563117</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.7989836805314593</v>
+        <v>0.8311402805698893</v>
       </c>
       <c r="T92">
-        <v>8.183960253438071</v>
+        <v>8.177727164755408</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.02341230884100098</v>
+        <v>0.02424072477712785</v>
       </c>
       <c r="W92">
-        <v>0.1857469788584416</v>
+        <v>0.1792469788584416</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8937,7 +8937,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.1064195856409135</v>
+        <v>0.1101851126233083</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8948,13 +8948,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2488146490257434</v>
+        <v>0.2461803090295863</v>
       </c>
       <c r="C93">
-        <v>-648.7341985467536</v>
+        <v>-634.8561752973445</v>
       </c>
       <c r="D93">
-        <v>458.7708014532463</v>
+        <v>472.6488247026555</v>
       </c>
       <c r="E93">
         <v>891.2049999999999</v>
@@ -8981,37 +8981,37 @@
         <v>23.6</v>
       </c>
       <c r="M93">
-        <v>224.227731</v>
+        <v>216.5648485</v>
       </c>
       <c r="N93">
-        <v>-200.627731</v>
+        <v>-192.9648485</v>
       </c>
       <c r="O93">
-        <v>-44.13810082000001</v>
+        <v>-42.45226667000001</v>
       </c>
       <c r="P93">
-        <v>-156.48963018</v>
+        <v>-150.51258183</v>
       </c>
       <c r="Q93">
-        <v>-137.08963018</v>
+        <v>-131.11258183</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.8860040894793991</v>
+        <v>0.9224558672998768</v>
       </c>
       <c r="T93">
-        <v>9.093289170486745</v>
+        <v>9.086363516394897</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.0231550307218691</v>
+        <v>0.0239743431861704</v>
       </c>
       <c r="W93">
-        <v>0.1857959131567005</v>
+        <v>0.1792959131567005</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.1052501396448595</v>
+        <v>0.1089742872098655</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -9030,13 +9030,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2505586490257434</v>
+        <v>0.2479243090295863</v>
       </c>
       <c r="C94">
-        <v>-665.0973638307803</v>
+        <v>-651.265557433153</v>
       </c>
       <c r="D94">
-        <v>455.3626361692198</v>
+        <v>469.194442566847</v>
       </c>
       <c r="E94">
         <v>904.1600000000001</v>
@@ -9063,37 +9063,37 @@
         <v>23.6</v>
       </c>
       <c r="M94">
-        <v>226.691772</v>
+        <v>218.944682</v>
       </c>
       <c r="N94">
-        <v>-203.091772</v>
+        <v>-195.344682</v>
       </c>
       <c r="O94">
-        <v>-44.68018984000001</v>
+        <v>-42.97583004000001</v>
       </c>
       <c r="P94">
-        <v>-158.41158216</v>
+        <v>-152.36885196</v>
       </c>
       <c r="Q94">
-        <v>-139.01158216</v>
+        <v>-132.96885196</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.9947796006643245</v>
+        <v>1.036600350712362</v>
       </c>
       <c r="T94">
-        <v>10.22995031679759</v>
+        <v>10.22215895594426</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.02290334560532704</v>
+        <v>0.0237137524993642</v>
       </c>
       <c r="W94">
-        <v>0.1858437836658668</v>
+        <v>0.1793437836658668</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.1041061163878502</v>
+        <v>0.1077897840880191</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -9112,13 +9112,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2523026490257434</v>
+        <v>0.2496683090295864</v>
       </c>
       <c r="C95">
-        <v>-681.4102646439447</v>
+        <v>-667.6248128074998</v>
       </c>
       <c r="D95">
-        <v>452.0047353560553</v>
+        <v>465.7901871925003</v>
       </c>
       <c r="E95">
         <v>917.115</v>
@@ -9145,37 +9145,37 @@
         <v>23.6</v>
       </c>
       <c r="M95">
-        <v>229.155813</v>
+        <v>221.3245155</v>
       </c>
       <c r="N95">
-        <v>-205.555813</v>
+        <v>-197.7245155</v>
       </c>
       <c r="O95">
-        <v>-45.22227886000001</v>
+        <v>-43.49939341</v>
       </c>
       <c r="P95">
-        <v>-160.33353414</v>
+        <v>-154.22512209</v>
       </c>
       <c r="Q95">
-        <v>-140.93353414</v>
+        <v>-134.82512209</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>1.134633829330657</v>
+        <v>1.183357543671271</v>
       </c>
       <c r="T95">
-        <v>11.69137179062582</v>
+        <v>11.68246737822202</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.02265707307193643</v>
+        <v>0.02345876591334953</v>
       </c>
       <c r="W95">
-        <v>0.1858906247017177</v>
+        <v>0.1793906247017177</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.1029866957815292</v>
+        <v>0.1066307541515887</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9194,13 +9194,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2540466490257434</v>
+        <v>0.2514123090295864</v>
       </c>
       <c r="C96">
-        <v>-697.6740048158821</v>
+        <v>-683.9350246499693</v>
       </c>
       <c r="D96">
-        <v>448.6959951841179</v>
+        <v>462.4349753500308</v>
       </c>
       <c r="E96">
         <v>930.0699999999999</v>
@@ -9227,37 +9227,37 @@
         <v>23.6</v>
       </c>
       <c r="M96">
-        <v>231.619854</v>
+        <v>223.704349</v>
       </c>
       <c r="N96">
-        <v>-208.019854</v>
+        <v>-200.104349</v>
       </c>
       <c r="O96">
-        <v>-45.76436788</v>
+        <v>-44.02295678</v>
       </c>
       <c r="P96">
-        <v>-162.25548612</v>
+        <v>-156.08139222</v>
       </c>
       <c r="Q96">
-        <v>-142.85548612</v>
+        <v>-136.68139222</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.3211061342191</v>
+        <v>1.379033800949816</v>
       </c>
       <c r="T96">
-        <v>13.63993375573013</v>
+        <v>13.62954527459236</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.02241604037968179</v>
+        <v>0.02320920457384581</v>
       </c>
       <c r="W96">
-        <v>0.1859364691197845</v>
+        <v>0.1794364691197845</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.1018910926349171</v>
+        <v>0.1054963844265718</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9276,13 +9276,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2557906490257434</v>
+        <v>0.2531563090295864</v>
       </c>
       <c r="C97">
-        <v>-713.889656090329</v>
+        <v>-700.1972452021865</v>
       </c>
       <c r="D97">
-        <v>445.4353439096711</v>
+        <v>459.1277547978136</v>
       </c>
       <c r="E97">
         <v>943.0250000000001</v>
@@ -9309,37 +9309,37 @@
         <v>23.6</v>
       </c>
       <c r="M97">
-        <v>234.083895</v>
+        <v>226.0841825</v>
       </c>
       <c r="N97">
-        <v>-210.483895</v>
+        <v>-202.4841825</v>
       </c>
       <c r="O97">
-        <v>-46.30645690000001</v>
+        <v>-44.54652015000001</v>
       </c>
       <c r="P97">
-        <v>-164.1774381</v>
+        <v>-157.93766235</v>
       </c>
       <c r="Q97">
-        <v>-144.7774381</v>
+        <v>-138.53766235</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.58216736106292</v>
+        <v>1.652980561139781</v>
       </c>
       <c r="T97">
-        <v>16.36792050687616</v>
+        <v>16.35545432951083</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.02218008205989566</v>
+        <v>0.02296489715727901</v>
       </c>
       <c r="W97">
-        <v>0.1859813483922079</v>
+        <v>0.1794813483922079</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.1008185548177075</v>
+        <v>0.10438589616945</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9358,13 +9358,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2575346490257434</v>
+        <v>0.2549003090295864</v>
       </c>
       <c r="C98">
-        <v>-730.0582592825455</v>
+        <v>-716.4124968180382</v>
       </c>
       <c r="D98">
-        <v>442.2217407174546</v>
+        <v>455.8675031819619</v>
       </c>
       <c r="E98">
         <v>955.98</v>
@@ -9391,37 +9391,37 @@
         <v>23.6</v>
       </c>
       <c r="M98">
-        <v>236.547936</v>
+        <v>228.464016</v>
       </c>
       <c r="N98">
-        <v>-212.947936</v>
+        <v>-204.864016</v>
       </c>
       <c r="O98">
-        <v>-46.84854592000001</v>
+        <v>-45.07008352</v>
       </c>
       <c r="P98">
-        <v>-166.09939008</v>
+        <v>-159.79393248</v>
       </c>
       <c r="Q98">
-        <v>-146.69939008</v>
+        <v>-140.39393248</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.973759201328646</v>
+        <v>2.063900701424721</v>
       </c>
       <c r="T98">
-        <v>20.45990063359516</v>
+        <v>20.4443179118885</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.02194903953843842</v>
+        <v>0.02272567947855736</v>
       </c>
       <c r="W98">
-        <v>0.186025292679789</v>
+        <v>0.179525292679789</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.09976836153835644</v>
+        <v>0.1032985430843516</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9440,13 +9440,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2592786490257434</v>
+        <v>0.2566443090295863</v>
       </c>
       <c r="C99">
-        <v>-746.1808253869955</v>
+        <v>-732.5817730173511</v>
       </c>
       <c r="D99">
-        <v>439.0541746130045</v>
+        <v>452.6532269826488</v>
       </c>
       <c r="E99">
         <v>968.9349999999999</v>
@@ -9473,37 +9473,37 @@
         <v>23.6</v>
       </c>
       <c r="M99">
-        <v>239.011977</v>
+        <v>230.8438495</v>
       </c>
       <c r="N99">
-        <v>-215.411977</v>
+        <v>-207.2438495</v>
       </c>
       <c r="O99">
-        <v>-47.39063494000001</v>
+        <v>-45.59364689</v>
       </c>
       <c r="P99">
-        <v>-168.02134206</v>
+        <v>-161.65020261</v>
       </c>
       <c r="Q99">
-        <v>-148.62134206</v>
+        <v>-142.25020261</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.626412268438195</v>
+        <v>2.748767601899628</v>
       </c>
       <c r="T99">
-        <v>27.27986751146021</v>
+        <v>27.25909054918466</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.02172276078031019</v>
+        <v>0.02249139412310832</v>
       </c>
       <c r="W99">
-        <v>0.186068330899585</v>
+        <v>0.179568330899585</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.09873982172868268</v>
+        <v>0.1022336096504923</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9522,13 +9522,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2610226490257433</v>
+        <v>0.2583883090295863</v>
       </c>
       <c r="C100">
-        <v>-762.2583366377596</v>
+        <v>-748.706039495305</v>
       </c>
       <c r="D100">
-        <v>435.9316633622403</v>
+        <v>449.4839605046948</v>
       </c>
       <c r="E100">
         <v>981.8899999999999</v>
@@ -9555,37 +9555,37 @@
         <v>23.6</v>
       </c>
       <c r="M100">
-        <v>241.476018</v>
+        <v>233.223683</v>
       </c>
       <c r="N100">
-        <v>-217.876018</v>
+        <v>-209.623683</v>
       </c>
       <c r="O100">
-        <v>-47.93272396</v>
+        <v>-46.11721026</v>
       </c>
       <c r="P100">
-        <v>-169.94329404</v>
+        <v>-163.50647274</v>
       </c>
       <c r="Q100">
-        <v>-150.54329404</v>
+        <v>-144.10647274</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>3.931718402657292</v>
+        <v>4.118501402849441</v>
       </c>
       <c r="T100">
-        <v>40.91980126719032</v>
+        <v>40.88863582377699</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.02150109995602131</v>
+        <v>0.02226189010144394</v>
       </c>
       <c r="W100">
-        <v>0.1861104907883648</v>
+        <v>0.1796104907883647</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.0977322725273696</v>
+        <v>0.1011904095520179</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9604,13 +9604,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2627666490257434</v>
+        <v>0.2601323090295864</v>
       </c>
       <c r="C101">
-        <v>-778.2917475240187</v>
+        <v>-764.7862350897362</v>
       </c>
       <c r="D101">
-        <v>432.8532524759814</v>
+        <v>446.3587649102638</v>
       </c>
       <c r="E101">
         <v>994.845</v>
@@ -9637,37 +9637,37 @@
         <v>23.6</v>
       </c>
       <c r="M101">
-        <v>243.940059</v>
+        <v>235.6035165</v>
       </c>
       <c r="N101">
-        <v>-220.340059</v>
+        <v>-212.0035165</v>
       </c>
       <c r="O101">
-        <v>-48.47481298</v>
+        <v>-46.64077363000001</v>
       </c>
       <c r="P101">
-        <v>-171.86524602</v>
+        <v>-165.36274287</v>
       </c>
       <c r="Q101">
-        <v>-152.46524602</v>
+        <v>-145.96274287</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>7.847636805314584</v>
+        <v>8.227702805698883</v>
       </c>
       <c r="T101">
-        <v>81.83960253438063</v>
+        <v>81.77727164755399</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.02128391712818271</v>
+        <v>0.02203702252466168</v>
       </c>
       <c r="W101">
-        <v>0.1861517989622197</v>
+        <v>0.1796517989622197</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.09674507785537589</v>
+        <v>0.1001682842030076</v>
       </c>
       <c r="Z101">
         <v>0</v>
